--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,78 +521,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京叶子科技有限公司（南京OPPO）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>江苏南京</t>
+          <t>xx区</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>xxx事业部</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>135 加班，24 正常；大小周等等</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>是否打折，比如 xx%。</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>是否有入职就有，是否有前置条件才有。</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-01-25 03:43:17</t>
         </is>
       </c>
     </row>
@@ -602,74 +598,78 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
     </row>
@@ -679,78 +679,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
     </row>
@@ -760,28 +756,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -801,33 +801,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -867,44 +863,48 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
     </row>
@@ -914,17 +914,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -944,44 +944,44 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
     </row>
@@ -991,15 +991,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1017,36 +1021,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>没事到点走，部门氛围卷</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
+          <t>2022-01-24 14:25:34</t>
         </is>
       </c>
     </row>
@@ -1056,19 +1068,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1076,7 +1084,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1086,44 +1094,36 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>995</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+          <t>周1,2,4正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:21:22</t>
         </is>
       </c>
     </row>
@@ -1133,15 +1133,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1149,54 +1153,54 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1210,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1222,54 +1226,54 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1283,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1295,42 +1299,54 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的5%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+          <t>看部门盈利情况和个人绩效定</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
     </row>
@@ -1340,19 +1356,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1370,42 +1382,107 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>是否打折，比如 xx%。</t>
-        </is>
-      </c>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
+        <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>基数 xxxx，比例 xx%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>2022-01-24 13:11:01</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司（南京OPPO）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -588,7 +588,7 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-01-25 03:43:17</t>
+          <t>2022-01-25 07:36:35</t>
         </is>
       </c>
     </row>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,74 +521,66 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>是否打折，比如 xx%。</t>
+          <t>3个月8折</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>企业微信打卡，每月三次迟到机会</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-01-25 07:36:35</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
     </row>
@@ -598,78 +590,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江苏南京</t>
+          <t>xx区</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>xxx事业部</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>135 加班，24 正常；大小周等等</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>是否打折，比如 xx%。</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>是否有入职就有，是否有前置条件才有。</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-01-25 07:36:35</t>
         </is>
       </c>
     </row>
@@ -679,74 +667,78 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
     </row>
@@ -756,78 +748,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
     </row>
@@ -837,28 +825,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -868,7 +860,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -878,33 +870,33 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
     </row>
@@ -914,27 +906,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -944,44 +932,48 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
     </row>
@@ -991,17 +983,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1011,7 +1003,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1021,44 +1013,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
     </row>
@@ -1068,15 +1060,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1094,36 +1090,44 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>没事到点走，部门氛围卷</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
+          <t>2022-01-24 14:25:34</t>
         </is>
       </c>
     </row>
@@ -1133,19 +1137,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1163,44 +1163,36 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>995</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+          <t>周1,2,4正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:21:22</t>
         </is>
       </c>
     </row>
@@ -1210,15 +1202,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1226,54 +1222,54 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
     </row>
@@ -1283,12 +1279,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1299,54 +1295,54 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1352,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1372,42 +1368,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的5%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>看部门盈利情况和个人绩效定</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
     </row>
@@ -1417,19 +1425,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1447,42 +1451,107 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>是否打折，比如 xx%。</t>
-        </is>
-      </c>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
+        <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>基数 xxxx，比例 xx%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>2022-01-24 13:11:01</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,66 +521,70 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>8折</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
     </row>
@@ -590,74 +594,66 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>是否打折，比如 xx%。</t>
+          <t>3个月8折</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>企业微信打卡，每月三次迟到机会</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-01-25 07:36:35</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
     </row>
@@ -667,78 +663,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江苏南京</t>
+          <t>xx区</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>xxx事业部</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>135 加班，24 正常；大小周等等</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>是否打折，比如 xx%。</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>是否有入职就有，是否有前置条件才有。</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-01-25 07:36:35</t>
         </is>
       </c>
     </row>
@@ -748,74 +740,78 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
     </row>
@@ -825,78 +821,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
     </row>
@@ -906,28 +898,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -937,7 +933,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -947,33 +943,33 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
     </row>
@@ -983,27 +979,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1013,44 +1005,48 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
     </row>
@@ -1060,17 +1056,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1080,7 +1076,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1090,44 +1086,44 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
     </row>
@@ -1137,15 +1133,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1163,36 +1163,44 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>没事到点走，部门氛围卷</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
+          <t>2022-01-24 14:25:34</t>
         </is>
       </c>
     </row>
@@ -1202,19 +1210,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1222,7 +1226,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1232,44 +1236,36 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>995</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+          <t>周1,2,4正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:21:22</t>
         </is>
       </c>
     </row>
@@ -1279,15 +1275,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1295,54 +1295,54 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
     </row>
@@ -1352,12 +1352,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1368,54 +1368,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
     </row>
@@ -1425,12 +1425,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1441,42 +1441,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的5%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>看部门盈利情况和个人绩效定</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
     </row>
@@ -1486,19 +1498,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1516,42 +1524,107 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>是否打折，比如 xx%。</t>
-        </is>
-      </c>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
+        <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>基数 xxxx，比例 xx%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>2022-01-24 13:11:01</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,27 +521,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>云账房</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
+          <t>地址：南站绿地之窗</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -551,40 +551,48 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>基数 看个人，比例 5%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>基数5000 按照绩效或多或少</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>五天年假，按入职日期折算</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+          <t>钉钉打卡，每个月五次补卡机会</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-06 13:30:06</t>
+          <t>2022-02-06 13:32:01</t>
         </is>
       </c>
     </row>
@@ -594,66 +602,70 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>8折</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
     </row>
@@ -663,74 +675,66 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>是否打折，比如 xx%。</t>
+          <t>3个月8折</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>企业微信打卡，每月三次迟到机会</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-01-25 07:36:35</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
     </row>
@@ -740,78 +744,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>江苏南京</t>
+          <t>xx区</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>xxx事业部</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>135 加班，24 正常；大小周等等</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>是否打折，比如 xx%。</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>是否有入职就有，是否有前置条件才有。</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-01-25 07:36:35</t>
         </is>
       </c>
     </row>
@@ -821,74 +821,78 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
     </row>
@@ -898,78 +902,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
     </row>
@@ -979,28 +979,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1010,7 +1014,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1020,33 +1024,33 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
     </row>
@@ -1056,27 +1060,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1086,44 +1086,48 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
     </row>
@@ -1133,17 +1137,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1153,7 +1157,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1163,44 +1167,44 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
     </row>
@@ -1210,15 +1214,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1236,36 +1244,44 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>没事到点走，部门氛围卷</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
+          <t>2022-01-24 14:25:34</t>
         </is>
       </c>
     </row>
@@ -1275,19 +1291,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1295,7 +1307,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1305,44 +1317,36 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>995</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+          <t>周1,2,4正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:21:22</t>
         </is>
       </c>
     </row>
@@ -1352,15 +1356,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1368,54 +1376,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
     </row>
@@ -1425,12 +1433,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1441,54 +1449,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
     </row>
@@ -1498,12 +1506,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1514,42 +1522,54 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的5%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>看部门盈利情况和个人绩效定</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
     </row>
@@ -1559,19 +1579,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1589,42 +1605,107 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>是否打折，比如 xx%。</t>
-        </is>
-      </c>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
+        <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>基数 xxxx，比例 xx%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>2022-01-24 13:11:01</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,16 @@
           <t>更新时间</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -521,27 +531,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -551,50 +557,52 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>基数 工资80%，比例 7%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>承诺13薪-14；！！第一年无</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
+          <t>抠</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-06 13:32:01</t>
-        </is>
-      </c>
+          <t>2022-02-08 02:13:11</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -602,17 +610,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
+          <t>江苏省南京市雨花台区</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>营销IT事业部</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -622,7 +630,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -632,40 +640,46 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>8折</t>
-        </is>
-      </c>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>入职即可</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>钉钉严格打卡</t>
+          <t>OPPO自研IM软件TT打卡</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-02-06 13:30:06</t>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
         </is>
       </c>
     </row>
@@ -675,68 +689,54 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>秦淮区</t>
+          <t>江宁九龙湖</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>一般无</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>3个月8折</t>
-        </is>
-      </c>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
-        </is>
-      </c>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
-        </is>
-      </c>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -744,27 +744,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>云账房</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>xx区</t>
+          <t>地址：南站绿地之窗</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>xxx事业部</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -774,46 +774,52 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>是否打折，比如 xx%。</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>五天年假，按入职日期折算</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
+          <t>钉钉打卡，每个月五次补卡机会</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-01-25 07:36:35</t>
-        </is>
-      </c>
+          <t>2022-02-06 13:32:01</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -821,12 +827,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江苏南京</t>
+          <t>鼓楼区</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -836,65 +842,59 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>8折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
-        </is>
-      </c>
+          <t>2022-02-06 13:30:06</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -902,76 +902,70 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
+          <t>秦淮区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>前端</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3个月8折</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
-        </is>
-      </c>
+          <t>2022-02-06 13:26:16</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -979,80 +973,78 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
+          <t>xx区</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>xxx事业部</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>135 加班，24 正常；大小周等等</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>是否打折，比如 xx%。</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>是否有入职就有，是否有前置条件才有。</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>内推VX：Just1n</t>
-        </is>
-      </c>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
-        </is>
-      </c>
+          <t>2022-01-25 07:36:35</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1060,76 +1052,82 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>八折</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
-        </is>
-      </c>
+          <t>2022-01-25 02:22:42</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1137,76 +1135,78 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
+          <t>1月3次补卡</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
-        </is>
-      </c>
+          <t>2022-01-25 01:58:09</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1214,47 +1214,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>白下（年中搬到河西）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1264,26 +1264,32 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>内推VX：Just1n</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:35:55</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1291,23 +1297,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
+          <t>建邺</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1317,38 +1323,52 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>13薪，每年调薪一次</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:32:45</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1356,17 +1376,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>web后台</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1376,7 +1396,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1386,27 +1406,27 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>工资八折的10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1个月工资</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1416,16 +1436,18 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:29:37</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1433,15 +1455,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1449,56 +1475,58 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>基数5500，比例10%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1506,12 +1534,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台软件谷科创城</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1522,56 +1550,50 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>基础工资的5%</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>看部门盈利情况和个人绩效定</t>
-        </is>
-      </c>
+          <t>周1,2,4正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1579,15 +1601,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1595,7 +1621,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1605,34 +1631,48 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>1个月工资</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+          <t>Windows电脑+dell显示器</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>法定年假</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>弹性打卡</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:19:34</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1640,19 +1680,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花台</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1660,56 +1696,275 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>是否打折，比如 xx%。</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
+          <t>2022-01-24 14:17:01</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华为南研所</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>12:00-13:40</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>看部门盈利情况和个人绩效定</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2022-01-24 14:17:32</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>满帮</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>基数 xxxx，比例 xx%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,15 +531,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>xxx有限公司（或缩写）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Java</t>
@@ -547,7 +551,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -557,48 +561,44 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>135 加班，24 正常；大小周等等</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
+          <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>是否打折，比如 xx%。</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>是否有入职就有，是否有前置条件才有。</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>抠</t>
-        </is>
-      </c>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-08 02:13:11</t>
+          <t>2022-02-10 02:21:13</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -610,19 +610,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Java</t>
@@ -630,7 +626,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -640,48 +636,52 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>试用期 3个月，8折，转正返还</t>
-        </is>
-      </c>
+          <t>2022-02-08 02:13:11</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -689,54 +689,78 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -744,78 +768,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>三个月，薪资打八折</t>
-        </is>
-      </c>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
-        </is>
-      </c>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-02-06 13:32:01</t>
+          <t>2022-02-07 06:38:11</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -827,27 +823,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>云账房</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
+          <t>地址：南站绿地之窗</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -857,40 +853,48 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>基数 看个人，比例 5%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>基数5000 按照绩效或多或少</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>8折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>五天年假，按入职日期折算</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>钉钉打卡，每个月五次补卡机会</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-02-06 13:30:06</t>
+          <t>2022-02-06 13:32:01</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -902,66 +906,70 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>8折</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -973,74 +981,66 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>是否打折，比如 xx%。</t>
+          <t>3个月8折</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>企业微信打卡，每月三次迟到机会</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-01-25 07:36:35</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1052,78 +1052,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>江苏南京</t>
+          <t>xx区</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>xxx事业部</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>135 加班，24 正常；大小周等等</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>是否打折，比如 xx%。</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>是否有入职就有，是否有前置条件才有。</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-01-25 07:36:35</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1135,74 +1131,78 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1214,78 +1214,74 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1297,28 +1293,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1338,33 +1338,33 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1376,27 +1376,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1406,44 +1402,48 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1455,17 +1455,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1485,44 +1485,44 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1534,15 +1534,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1560,36 +1564,44 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>没事到点走，部门氛围卷</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
+          <t>2022-01-24 14:25:34</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
@@ -1601,19 +1613,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1621,7 +1629,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1631,44 +1639,36 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>995</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+          <t>周1,2,4正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:21:22</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
@@ -1680,15 +1680,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1696,54 +1700,54 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R17" t="inlineStr"/>
@@ -1755,12 +1759,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1771,54 +1775,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
@@ -1830,12 +1834,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1846,42 +1850,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的5%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>看部门盈利情况和个人绩效定</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
@@ -1893,19 +1909,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1923,48 +1935,115 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>是否打折，比如 xx%。</t>
-        </is>
-      </c>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-01-24 13:11:01</t>
+          <t>2022-01-24 14:10:47</t>
         </is>
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>基数 xxxx，比例 xx%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2022-01-24 13:11:01</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,19 +531,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>xxx有限公司（或缩写）</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>Java</t>
@@ -551,7 +547,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -561,44 +557,48 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>基数 工资80%，比例 7%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>承诺13薪-14；！！第一年无</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>是否打折，比如 xx%。</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-10 02:21:13</t>
+          <t>2022-02-08 02:13:11</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -610,15 +610,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Java</t>
@@ -626,7 +630,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -636,52 +640,48 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>入职即可</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>抠</t>
-        </is>
-      </c>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-02-08 02:13:11</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -689,78 +689,54 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>按KPI决定0~2个月</t>
-        </is>
-      </c>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>入职即可</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>试用期 3个月，8折，转正返还</t>
-        </is>
-      </c>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -768,50 +744,78 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>云账房</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>地址：南站绿地之窗</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>中台</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>三个月，薪资打八折</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+          <t>五天年假，按入职日期折算</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>钉钉打卡，每个月五次补卡机会</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
+          <t>2022-02-06 13:32:01</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -823,27 +827,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
+          <t>鼓楼区</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -853,48 +857,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>8折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>五天年假，按入职日期折算</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-02-06 13:32:01</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -906,70 +902,66 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>基数 看个人，比例 5%</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>基数5000 按照绩效或多或少</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>8折</t>
+          <t>3个月8折</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
+          <t>网吧工位</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>入职一年后才有，每年加一天</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>钉钉严格打卡</t>
+          <t>企业微信打卡，每月三次迟到机会</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-02-06 13:30:06</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -981,66 +973,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>135 加班，24 正常；大小周等等</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>是否打折，比如 xx%。</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>入职一年后才有，每年加一天</t>
+          <t>是否有入职就有，是否有前置条件才有。</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-01-25 07:36:35</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1052,74 +1052,78 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>xx区</t>
+          <t>江苏南京</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>xxx事业部</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>是否打折，比如 xx%。</t>
+          <t>八折</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
+          <t>钉钉位置打卡</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>老板阴晴不定，随意开除员工</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-01-25 07:36:35</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1131,78 +1135,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>老板阴晴不定，随意开除员工</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1214,74 +1214,78 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1293,32 +1297,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1338,33 +1338,33 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>飞书打卡</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1376,23 +1376,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>雨花台区软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1402,48 +1406,44 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
-        </is>
-      </c>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1455,17 +1455,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
+          <t>软件大道</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1485,44 +1485,44 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>基数5500，比例10%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:25:34</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1534,19 +1534,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>软件大道</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1564,44 +1560,36 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>基数5500，比例10%</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
+          <t>周1,2,4正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:21:22</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
@@ -1613,15 +1601,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1629,7 +1621,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1639,36 +1631,44 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>工资八折的10%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1个月工资</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
@@ -1680,19 +1680,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1700,54 +1696,54 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>工资八折的10%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1个月工资</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R17" t="inlineStr"/>
@@ -1759,12 +1755,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>雨花台</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1775,54 +1771,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>基础工资的5%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>配win台式机+双屏</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>必须按时打卡</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
@@ -1834,12 +1830,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花区万博科技园</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1850,54 +1846,42 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>试用期6个月，100%工资不打折</t>
-        </is>
-      </c>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>必须按时打卡</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:10:47</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
@@ -1909,15 +1893,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>A示例xxx公司</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1935,115 +1923,48 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>135 加班，24 正常；大小周等等</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 13:11:01</t>
         </is>
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>A示例xxx公司</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9:00-18:30</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>135 加班，24 正常；大小周等等</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>基数 xxxx，比例 xx%</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>是否打折，比如 xx%。</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2022-01-24 13:11:01</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,74 +973,78 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>xx区</t>
+          <t>江苏南京</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>xxx事业部</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>是否打折，比如 xx%。</t>
+          <t>八折</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
+          <t>钉钉位置打卡</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>老板阴晴不定，随意开除员工</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-01-25 07:36:35</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1052,78 +1056,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>老板阴晴不定，随意开除员工</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1135,74 +1135,78 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1214,32 +1218,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1259,33 +1259,33 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>飞书打卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1297,23 +1297,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>雨花台区软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1323,48 +1327,44 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
-        </is>
-      </c>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
+          <t>软件大道</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1406,44 +1406,44 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>基数5500，比例10%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:25:34</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1455,19 +1455,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>软件大道</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1485,44 +1481,36 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>基数5500，比例10%</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
+          <t>周1,2,4正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:21:22</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1534,15 +1522,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1550,7 +1542,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1560,36 +1552,44 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>工资八折的10%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1个月工资</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
@@ -1601,19 +1601,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1621,54 +1617,54 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>工资八折的10%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1个月工资</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
@@ -1680,12 +1676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>雨花台</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1696,54 +1692,54 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>基础工资的5%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>配win台式机+双屏</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>必须按时打卡</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R17" t="inlineStr"/>
@@ -1755,12 +1751,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花区万博科技园</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1771,54 +1767,42 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>试用期6个月，100%工资不打折</t>
-        </is>
-      </c>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>必须按时打卡</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:10:47</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
@@ -1830,15 +1814,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>A示例xxx公司</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1856,115 +1844,48 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>135 加班，24 正常；大小周等等</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 13:11:01</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>A示例xxx公司</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>9:00-18:30</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>135 加班，24 正常；大小周等等</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>基数 xxxx，比例 xx%</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>是否打折，比如 xx%。</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>2022-01-24 13:11:01</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,57 +471,57 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>公积金比例</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>试用期工资</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>评论</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>更新时间</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>试用期</t>
         </is>
       </c>
     </row>
@@ -531,74 +531,78 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>抠</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-08 02:13:11</t>
+          <t>2022-02-10 06:46:20</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -610,19 +614,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Java</t>
@@ -630,7 +630,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -640,46 +640,50 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
+          <t>承诺13薪-14；！！第一年无</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
+          <t>2022-02-08 02:13:11</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>比例 10%左右</t>
+          <t>基数 工资80%，比例 7%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>试用期 3个月，8折，转正返还</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -689,50 +693,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>正常下班双休，视项目进度自行申请加班</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
+          <t>2022-02-07 06:37:12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -744,81 +772,53 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>三个月，薪资打八折</t>
-        </is>
-      </c>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
-        </is>
-      </c>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-02-06 13:32:01</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -827,27 +827,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>云账房</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
+          <t>地址：南站绿地之窗</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -857,44 +857,52 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
+          <t>一个月平均加班天数3到4天</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>8折</t>
-        </is>
-      </c>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>五天年假，按入职日期折算</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>钉钉打卡，每个月五次补卡机会</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+          <t>2022-02-06 13:32:01</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>三个月，薪资打八折</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -902,70 +910,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>基数南京底薪，比例 8%</t>
-        </is>
-      </c>
+          <t>按需加班</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>一般无</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>3个月8折</t>
-        </is>
-      </c>
+          <t>基数5000 按照绩效或多或少</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+          <t>2022-02-06 13:30:06</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>基数 看个人，比例 5%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>8折</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -973,24 +985,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -1003,52 +1007,48 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>最低额度</t>
-        </is>
-      </c>
+          <t>124 加班，35 正常；大小周</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>八折</t>
-        </is>
-      </c>
+          <t>一般无</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+          <t>2022-02-06 13:26:16</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>基数南京底薪，比例 8%</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>3个月8折</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1056,78 +1056,82 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>基础工资的8%</t>
-        </is>
-      </c>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>试用期6个月，100%工资不打折</t>
-        </is>
-      </c>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+          <t>2022-01-25 02:22:42</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>最低额度</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>八折</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1135,82 +1139,78 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
+          <t>看部门，不强制，有工时排名。</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>不打折</t>
-        </is>
-      </c>
+          <t>看部门盈利情况和个人绩效定</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+          <t>2022-01-25 01:58:09</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>基础工资的8%</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1218,28 +1218,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1247,49 +1251,49 @@
           <t>不加班</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>13薪，每年调薪一次</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>应届生八折，有工作经验的不打折</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+          <t>2022-01-24 14:35:55</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1297,27 +1301,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1327,48 +1327,52 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>最低，双边合计512</t>
-        </is>
-      </c>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>三个月，打八折</t>
-        </is>
-      </c>
+          <t>13薪，每年调薪一次</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+          <t>2022-01-24 14:32:45</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1376,17 +1380,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1396,7 +1400,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1406,48 +1410,48 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>基数5500，比例10%</t>
-        </is>
-      </c>
+          <t>124固定加班到9点</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>不打折</t>
-        </is>
-      </c>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+          <t>2022-01-24 14:29:37</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>最低，双边合计512</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>三个月，打八折</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1455,15 +1459,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1481,40 +1489,48 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>6个月不打折。</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1522,19 +1538,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1542,7 +1554,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1552,48 +1564,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>995</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>不打折</t>
-        </is>
-      </c>
+          <t>周1,2,4正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:21:22</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>6个月不打折。</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1601,15 +1605,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1617,58 +1625,58 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>基数5k，比例8%</t>
-        </is>
-      </c>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>固定13薪</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
-        </is>
-      </c>
+          <t>1个月工资</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+          <t>2022-01-24 14:19:34</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>工资八折的10%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1676,12 +1684,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1692,58 +1700,58 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>基础工资的5%</t>
-        </is>
-      </c>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>试用期6个月，100%工资不打折</t>
-        </is>
-      </c>
+          <t>固定13薪</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+          <t>2022-01-24 14:17:01</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>基数5k，比例8%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1751,12 +1759,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1767,46 +1775,58 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+          <t>2022-01-24 14:17:32</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1814,19 +1834,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1844,48 +1860,115 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>基数 xxxx，比例 xx%</t>
-        </is>
-      </c>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>是否打折，比如 xx%。</t>
-        </is>
-      </c>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>基数 xxxx，比例 xx%</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -471,57 +471,57 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>公积金比例</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>试用期工资</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>公积金</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>评论</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>更新时间</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>公积金比例</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>试用期工资</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-10 06:46:20</t>
+          <t>2022-02-10 07:19:05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -643,7 +643,11 @@
           <t>不强制加班，加班换调休，无加班费，年底清零</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>承诺13薪-14；！！第一年无</t>
@@ -678,14 +682,10 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
           <t>100%</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -726,11 +726,7 @@
           <t>正常下班双休，视项目进度自行申请加班</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>按KPI决定0~2个月</t>
@@ -764,7 +760,11 @@
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -793,7 +793,11 @@
           <t>不加班</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
@@ -814,11 +818,7 @@
           <t>2022-02-07 06:38:11</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -860,7 +860,11 @@
           <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>去年只发了半个月</t>
@@ -895,14 +899,10 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
           <t>三个月，薪资打八折</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -943,7 +943,11 @@
           <t>按需加班</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>基数 看个人，比例 5%</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>基数5000 按照绩效或多或少</t>
@@ -970,14 +974,10 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
           <t>8折</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1010,7 +1010,11 @@
           <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>基数南京底薪，比例 8%</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>一般无</t>
@@ -1041,14 +1045,10 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
           <t>3个月8折</t>
         </is>
       </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1089,7 +1089,11 @@
           <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>最低额度</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>无</t>
@@ -1124,14 +1128,10 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>最低额度</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
           <t>八折</t>
         </is>
       </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1168,7 +1168,11 @@
           <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>基础工资的8%</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>看部门盈利情况和个人绩效定</t>
@@ -1203,14 +1207,10 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
           <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1251,7 +1251,11 @@
           <t>不加班</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>13薪，每年调薪一次</t>
@@ -1286,14 +1290,10 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
           <t>不打折</t>
         </is>
       </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1330,7 +1330,11 @@
           <t>不加班</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>13薪，每年调薪一次</t>
@@ -1365,14 +1369,10 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
           <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1413,7 +1413,11 @@
           <t>124固定加班到9点</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>最低，双边合计512</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>无</t>
@@ -1444,14 +1448,10 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
           <t>三个月，打八折</t>
         </is>
       </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1492,7 +1492,11 @@
           <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
@@ -1523,14 +1527,10 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
           <t>不打折</t>
         </is>
       </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1592,12 +1592,12 @@
           <t>2022-01-24 14:21:22</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>6个月不打折。</t>
         </is>
       </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1638,7 +1638,11 @@
           <t>995</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>工资八折的10%</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>1个月工资</t>
@@ -1669,14 +1673,10 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
           <t>不打折</t>
         </is>
       </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1713,7 +1713,11 @@
           <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>基数5k，比例8%</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>固定13薪</t>
@@ -1744,14 +1748,10 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
           <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1788,7 +1788,11 @@
           <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>看部门盈利情况和个人绩效定</t>
@@ -1819,14 +1823,10 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
           <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1863,7 +1863,11 @@
           <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>上下半年绩效</t>
@@ -1884,11 +1888,7 @@
           <t>2022-01-24 14:10:47</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1930,7 +1930,11 @@
           <t>135 加班，24 正常；大小周等等</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>基数 xxxx，比例 xx%</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
@@ -1961,14 +1965,10 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
           <t>是否打折，比如 xx%。</t>
         </is>
       </c>
+      <c r="S20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,42 +481,42 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>试用期工资</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>试用期</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>评论</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>更新时间</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>试用期工资</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -531,78 +531,78 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>云密城</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部/产品部</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>1-3个月，看领导给你的评价，</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>8折，两个月的试用</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -614,75 +614,79 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>抠</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-02-08 02:13:11</t>
+          <t>2022-02-10 07:19:05</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -693,19 +697,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>Java</t>
@@ -713,7 +713,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -723,48 +723,52 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
+          <t>承诺13薪-14；！！第一年无</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>试用期 3个月，8折，转正返还</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
+          <t>2022-02-08 02:13:11</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -772,54 +776,78 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -827,81 +855,53 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
-        </is>
-      </c>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-02-06 13:32:01</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>三个月，薪资打八折</t>
-        </is>
-      </c>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -910,27 +910,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>云账房</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
+          <t>地址：南站绿地之窗</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -940,43 +940,51 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>基数 看个人，比例 5%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>三个月，薪资打八折</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>五天年假，按入职日期折算</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
+          <t>钉钉打卡，每个月五次补卡机会</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>8折</t>
-        </is>
-      </c>
+          <t>2022-02-06 13:32:01</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -985,69 +993,73 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>一般无</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>基数5000 按照绩效或多或少</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>8折</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>3个月8折</t>
-        </is>
-      </c>
+          <t>2022-02-06 13:30:06</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1056,24 +1068,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -1086,51 +1090,47 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>一般无</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>3个月8折</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>八折</t>
-        </is>
-      </c>
+          <t>2022-02-06 13:26:16</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1139,77 +1139,81 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>八折</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>试用期6个月，100%工资不打折</t>
-        </is>
-      </c>
+          <t>2022-01-25 02:22:42</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1218,81 +1222,77 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>看部门盈利情况和个人绩效定</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>不打折</t>
-        </is>
-      </c>
+          <t>2022-01-25 01:58:09</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1301,28 +1301,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1332,7 +1336,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1340,38 +1344,38 @@
           <t>13薪，每年调薪一次</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>应届生八折，有工作经验的不打折</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:35:55</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1380,27 +1384,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1410,47 +1410,51 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>13薪，每年调薪一次</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>三个月，打八折</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:32:45</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1459,17 +1463,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1479,7 +1483,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1489,47 +1493,47 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>三个月，打八折</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>不打折</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:29:37</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1538,15 +1542,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1564,39 +1572,47 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>没事到点走，部门氛围卷</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>6个月不打折。</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1605,19 +1621,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1625,7 +1637,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1635,47 +1647,39 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>995</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>周1,2,4正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>6个月不打折。</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>不打折</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1684,15 +1688,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1700,57 +1708,57 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>固定13薪</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>1个月工资</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:19:34</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1759,12 +1767,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1775,57 +1783,57 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>固定13薪</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>试用期6个月，100%工资不打折</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:17:01</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1834,12 +1842,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1850,42 +1858,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的5%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>看部门盈利情况和个人绩效定</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
@@ -1897,19 +1917,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1927,48 +1943,115 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>上下半年绩效</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>基数 xxxx，比例 xx%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>是否打折，比如 xx%。</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -978,10 +978,29 @@
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>{
+"公司名称": "云账房",
+"地址": "地址：南站绿地之窗",
+"部门": "税务事业部",
+"岗位": "前端",
+"上班时间": "9:00-18:00",
+"午休时长": "1.5h",
+"加班情况": "发版的时候，会加到10点。上面领导抓得紧的话，会要求每周两天加到8点，没事也要干坐着",
+"公积金比例": "总薪资 * 0.8 * 0.6 * 10%",
+"年终奖": "去年只发了半个月",
+"试用期工资": "三个月，薪资不打折(可跟HR谈)",
+"工位电脑情况": "网吧工位，一个台式主机，两个24寸1080P显示器。椅子最烂了，坐着咯吱咯吱响",
+"年假": "五天年假，按入职日期折算，每两个月发放一天",
+"打卡情况": "钉钉打卡，每个月五次补卡机会",
+"其他备注": "调薪需要答辩，还不一定有名额，通过率也不是很高，过了涨幅在1-2千左右。还不是每年都有答辩，看公司情况"
+}</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-02-06 13:32:01</t>
+          <t>2022-02-11 01:20:28</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -761,10 +761,14 @@
           <t>抠</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-02-08 02:13:11</t>
+          <t>2022-02-11 10:04:17</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,57 +471,57 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>公积金比例</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>试用期工资</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>评论</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>更新时间</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>公积金</t>
         </is>
       </c>
     </row>
@@ -531,22 +531,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -556,53 +556,53 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
+          <t>基数8%。</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8折，两个月的试用</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
+          <t>2022-02-12 07:02:08</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -614,82 +614,82 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>云密城</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部/产品部</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>1-3个月，看领导给你的评价，</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>8折，两个月的试用</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -697,81 +697,81 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
+          <t>看情况，基本到点就走，除非有上线</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
+          <t>2022-02-10 07:19:05</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -780,19 +780,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Java</t>
@@ -800,7 +796,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -810,46 +806,54 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
+          <t>承诺13薪-14；！！第一年无</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
+          <t>2022-02-11 10:04:17</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>试用期 3个月，8折，转正返还</t>
+          <t>基数 工资80%，比例 7%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>比例 10%左右</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -859,50 +863,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>正常下班双休，视项目进度自行申请加班</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
+          <t>2022-02-07 06:37:12</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -914,75 +942,122 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>云账房</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>地址：南站绿地之窗</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>中台</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>9:30-18:30</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>1.5h</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>去年只发了半个月</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
         <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -1002,88 +1077,21 @@
 }</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>8折</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>三个月，薪资打八折</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1091,70 +1099,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>基数南京底薪，比例 8%</t>
-        </is>
-      </c>
+          <t>按需加班</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>一般无</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>3个月8折</t>
-        </is>
-      </c>
+          <t>基数5000 按照绩效或多或少</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+          <t>2022-02-06 13:30:06</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>基数 看个人，比例 5%</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>8折</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1162,24 +1174,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -1192,52 +1196,48 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>最低额度</t>
-        </is>
-      </c>
+          <t>124 加班，35 正常；大小周</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>八折</t>
-        </is>
-      </c>
+          <t>一般无</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+          <t>2022-02-06 13:26:16</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>基数南京底薪，比例 8%</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>3个月8折</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1245,78 +1245,82 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>基础工资的8%</t>
-        </is>
-      </c>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>试用期6个月，100%工资不打折</t>
-        </is>
-      </c>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+          <t>2022-01-25 02:22:42</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>最低额度</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>八折</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1324,82 +1328,78 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
+          <t>看部门，不强制，有工时排名。</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>不打折</t>
-        </is>
-      </c>
+          <t>看部门盈利情况和个人绩效定</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+          <t>2022-01-25 01:58:09</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>基础工资的8%</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1407,28 +1407,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1436,49 +1440,49 @@
           <t>不加班</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>13薪，每年调薪一次</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>应届生八折，有工作经验的不打折</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+          <t>2022-01-24 14:35:55</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1486,27 +1490,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1516,48 +1516,52 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>最低，双边合计512</t>
-        </is>
-      </c>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>三个月，打八折</t>
-        </is>
-      </c>
+          <t>13薪，每年调薪一次</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+          <t>2022-01-24 14:32:45</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1565,17 +1569,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1585,7 +1589,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1595,48 +1599,48 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>基数5500，比例10%</t>
-        </is>
-      </c>
+          <t>124固定加班到9点</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>不打折</t>
-        </is>
-      </c>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+          <t>2022-01-24 14:29:37</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>最低，双边合计512</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>三个月，打八折</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1644,15 +1648,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1670,40 +1678,48 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>6个月不打折。</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1711,19 +1727,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1731,7 +1743,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1741,48 +1753,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>995</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>不打折</t>
-        </is>
-      </c>
+          <t>周1,2,4正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:21:22</t>
         </is>
       </c>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>6个月不打折。</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1790,15 +1794,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1806,58 +1814,58 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>基数5k，比例8%</t>
-        </is>
-      </c>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>固定13薪</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
-        </is>
-      </c>
+          <t>1个月工资</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+          <t>2022-01-24 14:19:34</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>工资八折的10%</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1865,12 +1873,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1881,58 +1889,58 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>基础工资的5%</t>
-        </is>
-      </c>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>试用期6个月，100%工资不打折</t>
-        </is>
-      </c>
+          <t>固定13薪</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+          <t>2022-01-24 14:17:01</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>基数5k，比例8%</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1940,12 +1948,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1956,46 +1964,58 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+          <t>2022-01-24 14:17:32</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2003,19 +2023,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2033,48 +2049,115 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>基数 xxxx，比例 xx%</t>
-        </is>
-      </c>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>是否打折，比如 xx%。</t>
-        </is>
-      </c>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>基数 xxxx，比例 xx%</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,12 +531,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -556,53 +556,53 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展。</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:03:29</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -614,22 +614,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -639,57 +639,57 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>基数底薪，比例 10%。</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>三个月八折</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:56</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -697,43 +697,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -743,35 +747,31 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -780,18 +780,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>云密城</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>研发部/产品部</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -801,59 +805,55 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
+          <t>1-3个月，看领导给你的评价，</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>8折，两个月的试用</t>
         </is>
       </c>
     </row>
@@ -863,77 +863,81 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
+          <t>江北研创园</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>营销IT事业部</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>看情况，基本到点就走，除非有上线</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>试用期 3个月，8折，转正返还</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
+          <t>2022-02-10 07:19:05</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -942,54 +946,82 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
+          <t>鼓楼区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>9:00-18:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+          <t>每两个月发一天</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
+          <t>2022-02-11 10:04:17</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -997,67 +1029,201 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>南京叶子科技有限公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>云账房</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>地址：南站绿地之窗</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>中台</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>9:30-18:30</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>1.5h</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>去年只发了半个月</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -1077,165 +1243,19 @@
 }</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>8折</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9:00-18:00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1h</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>124 加班，35 正常；大小周</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>一般无</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:26:16</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>基数南京底薪，比例 8%</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1265,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江苏南京</t>
+          <t>鼓楼区</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1260,65 +1280,57 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1328,76 +1340,68 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
+          <t>秦淮区</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>前端</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -1407,80 +1411,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
+          <t>江苏南京</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>八折</t>
         </is>
       </c>
     </row>
@@ -1490,76 +1494,76 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>建邺</t>
+          <t>天溯产业园</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
     </row>
@@ -1569,76 +1573,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
+          <t>白下（年中搬到河西）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>内推VX：Just1n</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -1648,27 +1656,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>软件大道</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1678,46 +1682,50 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
     </row>
@@ -1727,15 +1735,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>雨花台区软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1743,7 +1755,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1753,38 +1765,46 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
+          <t>2022-01-24 14:29:37</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>最低，双边合计512</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
     </row>
@@ -1794,17 +1814,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
+          <t>软件大道</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>web后台</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1814,7 +1834,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1824,41 +1844,41 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1个月工资</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:25:34</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>工资八折的10%</t>
+          <t>基数5500，比例10%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1873,12 +1893,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>雨花台</t>
+          <t>雨花台软件谷科创城</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1889,56 +1909,48 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>固定13薪</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>基数5k，比例8%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
     </row>
@@ -1948,15 +1960,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华为南研所</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1964,56 +1980,56 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2023,12 +2039,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -2039,46 +2055,58 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+          <t>配笔记本+显示器</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>不打卡</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>基数5k，比例8%</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2086,19 +2114,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>华为南研所</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2106,54 +2130,196 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>配win台式机+双屏</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>必须按时打卡</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
+          <t>2022-01-24 14:17:32</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>满帮</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>是否打折，比如 xx%。</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -596,13 +596,13 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-12 07:03:29</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,22 +531,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -556,53 +556,53 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不加班, 但工作量大</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>工资*0.8*8%</t>
+          <t>具体基数忘了, 公司交一千多</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>三个月, 八折</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
+          <t>2022-02-13 10:32:56</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -614,12 +614,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -639,53 +639,53 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -697,12 +697,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -722,53 +722,53 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:02:56</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -780,22 +780,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -805,57 +805,57 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>根据公司业绩提供</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -863,82 +863,82 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>云密城</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部/产品部</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折</t>
-        </is>
-      </c>
+          <t>1-3个月，看领导给你的评价，</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>8折，两个月的试用</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -946,82 +946,82 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 07:19:05</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1029,19 +1029,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1049,7 +1045,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1059,48 +1055,56 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>试用期 3个月，8折，转正返还</t>
-        </is>
-      </c>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+          <t>2022-02-11 10:04:17</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1108,53 +1112,77 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1163,67 +1191,122 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>云账房</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>地址：南站绿地之窗</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>中台</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>一个月平均加班天数3到4天</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -1243,94 +1326,19 @@
 }</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1340,68 +1348,72 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1411,24 +1423,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -1441,50 +1445,46 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -1494,76 +1494,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
     </row>
@@ -1573,80 +1577,76 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
     </row>
@@ -1656,28 +1656,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1694,38 +1698,38 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -1735,27 +1739,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1765,46 +1765,50 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
     </row>
@@ -1814,17 +1818,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1834,7 +1838,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1844,46 +1848,46 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
     </row>
@@ -1893,15 +1897,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1919,38 +1927,46 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -1960,19 +1976,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1980,7 +1992,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1990,46 +2002,38 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
     </row>
@@ -2039,15 +2043,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2055,56 +2063,56 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2114,12 +2122,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -2130,56 +2138,56 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
     </row>
@@ -2189,12 +2197,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -2205,46 +2213,58 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2252,19 +2272,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2282,44 +2298,111 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>上下半年绩效</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>是否打折，比如 xx%。</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,27 +531,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>明略科技</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>云密城J</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -561,48 +561,40 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>三个月, 八折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>无, 所有节假日都少放几天</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-02-13 10:32:56</t>
+          <t>2022-03-09 02:18:53</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -614,22 +606,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -639,53 +631,53 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不加班, 但工作量大</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>工资*0.8*8%</t>
+          <t>具体基数忘了, 公司交一千多</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>三个月, 八折</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
+          <t>2022-02-13 10:32:56</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -697,12 +689,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -722,53 +714,53 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -780,12 +772,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -795,7 +787,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -805,53 +797,53 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:02:56</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -863,22 +855,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -888,57 +880,57 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>根据公司业绩提供</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -946,82 +938,82 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>云密城</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部/产品部</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折</t>
-        </is>
-      </c>
+          <t>1-3个月，看领导给你的评价，</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>8折，两个月的试用</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1029,82 +1021,82 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 07:19:05</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1112,19 +1104,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1132,7 +1120,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1142,48 +1130,56 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>试用期 3个月，8折，转正返还</t>
-        </is>
-      </c>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+          <t>2022-02-11 10:04:17</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1191,53 +1187,77 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1246,67 +1266,122 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>云账房</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>地址：南站绿地之窗</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>中台</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>一个月平均加班天数3到4天</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -1326,94 +1401,19 @@
 }</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1423,68 +1423,72 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1494,24 +1498,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -1524,50 +1520,46 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -1577,76 +1569,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
     </row>
@@ -1656,80 +1652,76 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
     </row>
@@ -1739,28 +1731,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1777,38 +1773,38 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -1818,27 +1814,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1848,46 +1840,50 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
     </row>
@@ -1897,17 +1893,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1917,7 +1913,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1927,46 +1923,46 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
     </row>
@@ -1976,15 +1972,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2002,38 +2002,46 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2043,19 +2051,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2063,7 +2067,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2073,46 +2077,38 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
     </row>
@@ -2122,15 +2118,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2138,56 +2138,56 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -2213,56 +2213,56 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
     </row>
@@ -2272,12 +2272,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -2288,46 +2288,58 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2335,19 +2347,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2365,44 +2373,111 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>上下半年绩效</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>是否打折，比如 xx%。</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,27 +531,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>云密城J</t>
+          <t>江苏省南京市鼓楼区</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -561,40 +561,48 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>根据工作年限, 第一年5天。</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+          <t>钉钉</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-03-09 02:18:53</t>
+          <t>2022-03-09 02:20:30</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -606,78 +614,78 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江宁正方中路</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>三个月, 八折</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-02-13 10:32:56</t>
+          <t>2022-03-09 02:21:16</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -689,78 +697,70 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>明略科技</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>云密城J</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>工资*0.8*8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>5天</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>氛围不行，不适合长期发展</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
+          <t>2022-03-09 02:18:53</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -772,7 +772,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -782,12 +782,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -797,53 +797,53 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>不加班, 但工作量大</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>具体基数忘了, 公司交一千多</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>三个月, 八折</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
+          <t>2022-02-13 10:32:56</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -855,12 +855,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -880,53 +880,53 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -938,22 +938,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -963,57 +963,57 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>基数底薪，比例 10%。</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>三个月八折</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:56</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1021,43 +1021,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1067,35 +1071,31 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1104,18 +1104,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>云密城</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>研发部/产品部</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1125,59 +1129,55 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
+          <t>1-3个月，看领导给你的评价，</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>8折，两个月的试用</t>
         </is>
       </c>
     </row>
@@ -1187,77 +1187,81 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
+          <t>江北研创园</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>营销IT事业部</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>看情况，基本到点就走，除非有上线</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>试用期 3个月，8折，转正返还</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
+          <t>2022-02-10 07:19:05</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1266,54 +1270,82 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
+          <t>鼓楼区</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>9:00-18:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+          <t>每两个月发一天</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
+          <t>2022-02-11 10:04:17</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1321,67 +1353,201 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>南京叶子科技有限公司</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>云账房</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>地址：南站绿地之窗</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>中台</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>9:30-18:30</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>1.5h</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>去年只发了半个月</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
         <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -1401,165 +1567,19 @@
 }</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>8折</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9:00-18:00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1h</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>124 加班，35 正常；大小周</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>一般无</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:26:16</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>基数南京底薪，比例 8%</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -1569,12 +1589,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>江苏南京</t>
+          <t>鼓楼区</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1584,65 +1604,57 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1652,76 +1664,68 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
+          <t>秦淮区</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>前端</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -1731,80 +1735,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
+          <t>江苏南京</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>八折</t>
         </is>
       </c>
     </row>
@@ -1814,76 +1818,76 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>建邺</t>
+          <t>天溯产业园</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
     </row>
@@ -1893,76 +1897,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
+          <t>白下（年中搬到河西）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>内推VX：Just1n</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1980,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>软件大道</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2002,46 +2006,50 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
     </row>
@@ -2051,15 +2059,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>雨花台区软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2067,7 +2079,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2077,38 +2089,46 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
+          <t>2022-01-24 14:29:37</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>最低，双边合计512</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
     </row>
@@ -2118,17 +2138,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
+          <t>软件大道</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>web后台</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2138,7 +2158,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2148,41 +2168,41 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1个月工资</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:25:34</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>工资八折的10%</t>
+          <t>基数5500，比例10%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2197,12 +2217,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>雨花台</t>
+          <t>雨花台软件谷科创城</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -2213,56 +2233,48 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>固定13薪</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>基数5k，比例8%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
     </row>
@@ -2272,15 +2284,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华为南研所</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2288,56 +2304,56 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2347,12 +2363,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -2363,46 +2379,58 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+          <t>配笔记本+显示器</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>不打卡</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>基数5k，比例8%</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2410,19 +2438,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>华为南研所</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2430,54 +2454,196 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>配win台式机+双屏</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>必须按时打卡</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
+          <t>2022-01-24 14:17:32</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>满帮</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>是否打折，比如 xx%。</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,27 +531,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>紫金山实验室</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>江苏省南京市鼓楼区</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>未来网络</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>网络/区块链/k8s</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -561,48 +561,48 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>基本上很少加班</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>总包*0.7/12，比例缴纳12%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>总包*0.2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>试用期6月数；工资不打折</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>按照国家法定节假日。</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-03-09 02:20:30</t>
+          <t>2022-06-23 09:40:05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -614,78 +614,78 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江宁正方中路</t>
+          <t>江苏省南京市鼓楼区</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-03-09 02:21:16</t>
+          <t>2022-03-09 02:20:30</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -697,70 +697,78 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>云密城J</t>
+          <t>江宁正方中路</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
+          <t>自带</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
+          <t>严格打卡，钉钉。</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-03-09 02:18:53</t>
+          <t>2022-03-09 02:21:16</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -772,27 +780,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>明略科技</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>云密城J</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -802,48 +810,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>三个月, 八折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>无, 所有节假日都少放几天</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-02-13 10:32:56</t>
+          <t>2022-03-09 02:18:53</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -855,22 +855,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -880,53 +880,53 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不加班, 但工作量大</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>工资*0.8*8%</t>
+          <t>具体基数忘了, 公司交一千多</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>三个月, 八折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
+          <t>2022-02-13 10:32:56</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -938,12 +938,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -963,53 +963,53 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1046,53 +1046,53 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:02:56</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1104,22 +1104,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1129,57 +1129,57 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>根据公司业绩提供</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1187,82 +1187,82 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>云密城</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部/产品部</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折</t>
-        </is>
-      </c>
+          <t>1-3个月，看领导给你的评价，</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>8折，两个月的试用</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1270,82 +1270,82 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 07:19:05</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1353,19 +1353,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1373,7 +1369,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1383,48 +1379,56 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>试用期 3个月，8折，转正返还</t>
-        </is>
-      </c>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+          <t>2022-02-11 10:04:17</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1432,53 +1436,77 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1487,67 +1515,122 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>云账房</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>地址：南站绿地之窗</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>中台</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>一个月平均加班天数3到4天</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -1567,94 +1650,19 @@
 }</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1664,68 +1672,72 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1735,24 +1747,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -1765,50 +1769,46 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -1818,76 +1818,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
     </row>
@@ -1897,80 +1901,76 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
     </row>
@@ -1980,28 +1980,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2018,38 +2022,38 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2059,27 +2063,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2089,46 +2089,50 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
     </row>
@@ -2138,17 +2142,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2158,7 +2162,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2168,46 +2172,46 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
     </row>
@@ -2217,15 +2221,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2243,38 +2251,46 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2284,19 +2300,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2304,7 +2316,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2314,46 +2326,38 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
     </row>
@@ -2363,15 +2367,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2379,56 +2387,56 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2438,12 +2446,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2454,56 +2462,56 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
     </row>
@@ -2513,12 +2521,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2529,46 +2537,58 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2576,19 +2596,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2606,44 +2622,111 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>上下半年绩效</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>是否打折，比如 xx%。</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,78 +531,78 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>紫金山实验室</t>
+          <t>中国电子云</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>雨花台区凯润大厦</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>未来网络</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>网络/区块链/k8s</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>基本上很少加班</t>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>总包*0.7/12，比例缴纳12%</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>总包*0.2</t>
+          <t>14薪，看考核</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>试用期6月数；工资不打折</t>
+          <t>试用期6个月，不打折</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>按照国家法定节假日。</t>
+          <t>转正后按照有年假的</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
+          <t>手机打卡，公司附近500m左右</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-06-23 09:40:05</t>
+          <t>2022-06-23 09:58:51</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -614,27 +614,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>紫金山实验室</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江苏省南京市鼓楼区</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>未来网络</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>网络/区块链/k8s</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -644,48 +644,48 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>基本上很少加班</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>总包*0.7/12，比例缴纳12%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>总包*0.2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>试用期6月数；工资不打折</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>按照国家法定节假日。</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-03-09 02:20:30</t>
+          <t>2022-06-23 09:40:05</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -697,78 +697,78 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江宁正方中路</t>
+          <t>江苏省南京市鼓楼区</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-03-09 02:21:16</t>
+          <t>2022-03-09 02:20:30</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -780,70 +780,78 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>云密城J</t>
+          <t>江宁正方中路</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
+          <t>自带</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
+          <t>严格打卡，钉钉。</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-03-09 02:18:53</t>
+          <t>2022-03-09 02:21:16</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -855,27 +863,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>明略科技</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>云密城J</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -885,48 +893,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>三个月, 八折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>无, 所有节假日都少放几天</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-02-13 10:32:56</t>
+          <t>2022-03-09 02:18:53</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -938,22 +938,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -963,53 +963,53 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不加班, 但工作量大</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>工资*0.8*8%</t>
+          <t>具体基数忘了, 公司交一千多</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>三个月, 八折</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
+          <t>2022-02-13 10:32:56</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1046,53 +1046,53 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1129,53 +1129,53 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:02:56</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1187,22 +1187,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1212,57 +1212,57 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>根据公司业绩提供</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1270,82 +1270,82 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>云密城</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部/产品部</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折</t>
-        </is>
-      </c>
+          <t>1-3个月，看领导给你的评价，</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>8折，两个月的试用</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1353,82 +1353,82 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 07:19:05</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1436,19 +1436,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1456,7 +1452,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1466,48 +1462,56 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>试用期 3个月，8折，转正返还</t>
-        </is>
-      </c>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+          <t>2022-02-11 10:04:17</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1515,53 +1519,77 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1570,67 +1598,122 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>云账房</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>地址：南站绿地之窗</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>中台</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>一个月平均加班天数3到4天</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -1650,94 +1733,19 @@
 }</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1747,68 +1755,72 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1818,24 +1830,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -1848,50 +1852,46 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -1901,76 +1901,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
     </row>
@@ -1980,80 +1984,76 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
     </row>
@@ -2063,28 +2063,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2101,38 +2105,38 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2142,27 +2146,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2172,46 +2172,50 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
     </row>
@@ -2221,17 +2225,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2241,7 +2245,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2251,46 +2255,46 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
     </row>
@@ -2300,15 +2304,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2326,38 +2334,46 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2367,19 +2383,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2387,7 +2399,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2397,46 +2409,38 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
     </row>
@@ -2446,15 +2450,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2462,56 +2470,56 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2529,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2537,56 +2545,56 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2604,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2612,46 +2620,58 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2659,19 +2679,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2689,44 +2705,111 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>上下半年绩效</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>是否打折，比如 xx%。</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,78 +531,78 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中国电子云</t>
+          <t>新康众有限公司（江苏康众汽配）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>雨花台区凯润大厦</t>
+          <t>江苏省南京市建邺区</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>存储开发部</t>
+          <t>技术中心-供应链</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>分布式存储开发工程师 C++/Go</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-17:30，弹性1小时</t>
+          <t>9:00-18：00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
+          <t>不强制加班，但是你没法早走，经常晚上开会</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>个人1500+公司1500</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>14薪，看考核</t>
+          <t>hr说是3个月，实则0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折</t>
+          <t>试用期3个月；不打折。</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>转正后按照有年假的</t>
+          <t>入职满3年有三天，且没有陪产假这些。</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>手机打卡，公司附近500m左右</t>
+          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
+          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-06-23 09:58:51</t>
+          <t>2022-06-23 10:00:12</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -614,78 +614,78 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>紫金山实验室</t>
+          <t>中国电子云</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>雨花台区凯润大厦</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>未来网络</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>网络/区块链/k8s</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>基本上很少加班</t>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>总包*0.7/12，比例缴纳12%</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>总包*0.2</t>
+          <t>14薪，看考核</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>试用期6月数；工资不打折</t>
+          <t>试用期6个月，不打折</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>按照国家法定节假日。</t>
+          <t>转正后按照有年假的</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
+          <t>手机打卡，公司附近500m左右</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-06-23 09:40:05</t>
+          <t>2022-06-23 09:58:51</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -697,27 +697,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>紫金山实验室</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江苏省南京市鼓楼区</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>未来网络</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>网络/区块链/k8s</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -727,48 +727,48 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>基本上很少加班</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>总包*0.7/12，比例缴纳12%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>总包*0.2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>试用期6月数；工资不打折</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>按照国家法定节假日。</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-03-09 02:20:30</t>
+          <t>2022-06-23 09:40:05</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -780,78 +780,78 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>江宁正方中路</t>
+          <t>江苏省南京市鼓楼区</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-03-09 02:21:16</t>
+          <t>2022-03-09 02:20:30</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -863,70 +863,78 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>云密城J</t>
+          <t>江宁正方中路</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+          <t>自带</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>严格打卡，钉钉。</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-03-09 02:18:53</t>
+          <t>2022-03-09 02:21:16</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -938,27 +946,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>明略科技</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>云密城J</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -968,48 +976,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>三个月, 八折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>无, 所有节假日都少放几天</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-02-13 10:32:56</t>
+          <t>2022-03-09 02:18:53</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1021,22 +1021,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1046,53 +1046,53 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不加班, 但工作量大</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>工资*0.8*8%</t>
+          <t>具体基数忘了, 公司交一千多</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>三个月, 八折</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
+          <t>2022-02-13 10:32:56</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1129,53 +1129,53 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1187,12 +1187,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1212,53 +1212,53 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:02:56</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1270,22 +1270,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1295,57 +1295,57 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>根据公司业绩提供</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1353,82 +1353,82 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>云密城</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部/产品部</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折</t>
-        </is>
-      </c>
+          <t>1-3个月，看领导给你的评价，</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>8折，两个月的试用</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1436,82 +1436,82 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 07:19:05</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1519,19 +1519,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1539,7 +1535,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1549,48 +1545,56 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>试用期 3个月，8折，转正返还</t>
-        </is>
-      </c>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+          <t>2022-02-11 10:04:17</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1598,53 +1602,77 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1653,67 +1681,122 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>云账房</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>地址：南站绿地之窗</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>中台</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>一个月平均加班天数3到4天</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -1733,94 +1816,19 @@
 }</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1830,68 +1838,72 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1901,24 +1913,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -1931,50 +1935,46 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -1984,76 +1984,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
     </row>
@@ -2063,80 +2067,76 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
     </row>
@@ -2146,28 +2146,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2184,38 +2188,38 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2225,27 +2229,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2255,46 +2255,50 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
     </row>
@@ -2304,17 +2308,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2324,7 +2328,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2334,46 +2338,46 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
     </row>
@@ -2383,15 +2387,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2409,38 +2417,46 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2450,19 +2466,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2470,7 +2482,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2480,46 +2492,38 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
     </row>
@@ -2529,15 +2533,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2545,56 +2553,56 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2604,12 +2612,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2620,56 +2628,56 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2687,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2695,46 +2703,58 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2742,19 +2762,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2772,44 +2788,111 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>上下半年绩效</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>是否打折，比如 xx%。</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,78 +531,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>新康众有限公司（江苏康众汽配）</t>
+          <t>宝马诚迈信息技术有限公司</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>江苏省南京市建邺区</t>
+          <t>天隆寺金地威新</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>技术中心-供应链</t>
+          <t>开发部</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-18：00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>不强制加班，但是你没法早走，经常晚上开会</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>个人1500+公司1500</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>hr说是3个月，实则0</t>
+          <t>一个月</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>试用期3个月；不打折。</t>
+          <t>3个月，不打折</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
+          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>入职满3年有三天，且没有陪产假这些。</t>
+          <t>10天起+12天病假</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
-        </is>
-      </c>
+          <t>刷脸闸机</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-06-23 10:00:12</t>
+          <t>2022-06-23 10:01:26</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -614,78 +610,78 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中国电子云</t>
+          <t>新康众有限公司（江苏康众汽配）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>雨花台区凯润大厦</t>
+          <t>江苏省南京市建邺区</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>存储开发部</t>
+          <t>技术中心-供应链</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>分布式存储开发工程师 C++/Go</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-17:30，弹性1小时</t>
+          <t>9:00-18：00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
+          <t>不强制加班，但是你没法早走，经常晚上开会</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>个人1500+公司1500</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>14薪，看考核</t>
+          <t>hr说是3个月，实则0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折</t>
+          <t>试用期3个月；不打折。</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>转正后按照有年假的</t>
+          <t>入职满3年有三天，且没有陪产假这些。</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>手机打卡，公司附近500m左右</t>
+          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
+          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-06-23 09:58:51</t>
+          <t>2022-06-23 10:00:12</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -697,78 +693,78 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>紫金山实验室</t>
+          <t>中国电子云</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>雨花台区凯润大厦</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>未来网络</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>网络/区块链/k8s</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>基本上很少加班</t>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>总包*0.7/12，比例缴纳12%</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>总包*0.2</t>
+          <t>14薪，看考核</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>试用期6月数；工资不打折</t>
+          <t>试用期6个月，不打折</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>按照国家法定节假日。</t>
+          <t>转正后按照有年假的</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
+          <t>手机打卡，公司附近500m左右</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-06-23 09:40:05</t>
+          <t>2022-06-23 09:58:51</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -780,27 +776,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>紫金山实验室</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>江苏省南京市鼓楼区</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>未来网络</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>网络/区块链/k8s</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -810,48 +806,48 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>基本上很少加班</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>总包*0.7/12，比例缴纳12%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>总包*0.2</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>试用期6月数；工资不打折</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>按照国家法定节假日。</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-03-09 02:20:30</t>
+          <t>2022-06-23 09:40:05</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -863,78 +859,78 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江宁正方中路</t>
+          <t>江苏省南京市鼓楼区</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-03-09 02:21:16</t>
+          <t>2022-03-09 02:20:30</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -946,70 +942,78 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>云密城J</t>
+          <t>江宁正方中路</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
+          <t>自带</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
+          <t>严格打卡，钉钉。</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-03-09 02:18:53</t>
+          <t>2022-03-09 02:21:16</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1021,27 +1025,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>明略科技</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>云密城J</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1051,48 +1055,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>三个月, 八折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>无, 所有节假日都少放几天</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-02-13 10:32:56</t>
+          <t>2022-03-09 02:18:53</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1104,22 +1100,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1129,53 +1125,53 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不加班, 但工作量大</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>工资*0.8*8%</t>
+          <t>具体基数忘了, 公司交一千多</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>三个月, 八折</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
+          <t>2022-02-13 10:32:56</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1187,12 +1183,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1212,53 +1208,53 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1270,12 +1266,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1285,7 +1281,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1295,53 +1291,53 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:02:56</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1353,22 +1349,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1378,57 +1374,57 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+          <t>根据公司业绩提供</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1436,82 +1432,82 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>云密城</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部/产品部</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折</t>
-        </is>
-      </c>
+          <t>1-3个月，看领导给你的评价，</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>8折，两个月的试用</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1519,82 +1515,82 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 07:19:05</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1602,19 +1598,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1622,7 +1614,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1632,48 +1624,56 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>试用期 3个月，8折，转正返还</t>
-        </is>
-      </c>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+          <t>2022-02-11 10:04:17</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1681,53 +1681,77 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1736,67 +1760,122 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>云账房</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>地址：南站绿地之窗</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>中台</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>一个月平均加班天数3到4天</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -1816,94 +1895,19 @@
 }</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1913,68 +1917,72 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1984,24 +1992,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -2014,50 +2014,46 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -2067,76 +2063,80 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
     </row>
@@ -2146,80 +2146,76 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
     </row>
@@ -2229,28 +2225,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2267,38 +2267,38 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2308,27 +2308,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2338,46 +2334,50 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
     </row>
@@ -2387,17 +2387,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2417,46 +2417,46 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
     </row>
@@ -2466,15 +2466,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2492,38 +2496,46 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2533,19 +2545,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2553,7 +2561,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2563,46 +2571,38 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
     </row>
@@ -2612,15 +2612,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2628,56 +2632,56 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2687,12 +2691,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2703,56 +2707,56 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
     </row>
@@ -2762,12 +2766,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2778,46 +2782,58 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2825,19 +2841,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2855,44 +2867,111 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>上下半年绩效</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>是否打折，比如 xx%。</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,74 +531,78 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>宝马诚迈信息技术有限公司</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天隆寺金地威新</t>
+          <t>江宁大学城</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>开发部</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>测试开发工程师</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:30-17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:30-13:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>工资全额的10%+年底补充年薪5%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>一个月</t>
+          <t>固定13薪，额外奖金1个月左右</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3个月，不打折</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>10天起+12天病假</t>
+          <t>12天年假</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>刷脸闸机</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+          <t>不打卡</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-06-23 10:01:26</t>
+          <t>2022-06-23 10:02:47</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -610,78 +614,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>新康众有限公司（江苏康众汽配）</t>
+          <t>宝马诚迈信息技术有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江苏省南京市建邺区</t>
+          <t>天隆寺金地威新</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>技术中心-供应链</t>
+          <t>开发部</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-18：00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>不强制加班，但是你没法早走，经常晚上开会</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>个人1500+公司1500</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>hr说是3个月，实则0</t>
+          <t>一个月</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>试用期3个月；不打折。</t>
+          <t>3个月，不打折</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
+          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>入职满3年有三天，且没有陪产假这些。</t>
+          <t>10天起+12天病假</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
-        </is>
-      </c>
+          <t>刷脸闸机</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-06-23 10:00:12</t>
+          <t>2022-06-23 10:01:26</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -693,78 +693,78 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>中国电子云</t>
+          <t>新康众有限公司（江苏康众汽配）</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>雨花台区凯润大厦</t>
+          <t>江苏省南京市建邺区</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>存储开发部</t>
+          <t>技术中心-供应链</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>分布式存储开发工程师 C++/Go</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00-17:30，弹性1小时</t>
+          <t>9:00-18：00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
+          <t>不强制加班，但是你没法早走，经常晚上开会</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>个人1500+公司1500</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>14薪，看考核</t>
+          <t>hr说是3个月，实则0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折</t>
+          <t>试用期3个月；不打折。</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>转正后按照有年假的</t>
+          <t>入职满3年有三天，且没有陪产假这些。</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>手机打卡，公司附近500m左右</t>
+          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
+          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-06-23 09:58:51</t>
+          <t>2022-06-23 10:00:12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -776,78 +776,78 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>紫金山实验室</t>
+          <t>中国电子云</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>雨花台区凯润大厦</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>未来网络</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>网络/区块链/k8s</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>基本上很少加班</t>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>总包*0.7/12，比例缴纳12%</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>总包*0.2</t>
+          <t>14薪，看考核</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>试用期6月数；工资不打折</t>
+          <t>试用期6个月，不打折</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>按照国家法定节假日。</t>
+          <t>转正后按照有年假的</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
+          <t>手机打卡，公司附近500m左右</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-06-23 09:40:05</t>
+          <t>2022-06-23 09:58:51</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -859,27 +859,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>紫金山实验室</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江苏省南京市鼓楼区</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>未来网络</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>网络/区块链/k8s</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -889,48 +889,48 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>基本上很少加班</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>总包*0.7/12，比例缴纳12%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>总包*0.2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>试用期6月数；工资不打折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>按照国家法定节假日。</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-03-09 02:20:30</t>
+          <t>2022-06-23 09:40:05</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -942,78 +942,78 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江宁正方中路</t>
+          <t>江苏省南京市鼓楼区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-03-09 02:21:16</t>
+          <t>2022-03-09 02:20:30</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1025,70 +1025,78 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>云密城J</t>
+          <t>江宁正方中路</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
+          <t>自带</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
+          <t>严格打卡，钉钉。</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-03-09 02:18:53</t>
+          <t>2022-03-09 02:21:16</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1100,27 +1108,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>明略科技</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>云密城J</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1130,48 +1138,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>三个月, 八折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>无, 所有节假日都少放几天</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-02-13 10:32:56</t>
+          <t>2022-03-09 02:18:53</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1183,22 +1183,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1208,53 +1208,53 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不加班, 但工作量大</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>工资*0.8*8%</t>
+          <t>具体基数忘了, 公司交一千多</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>三个月, 八折</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
+          <t>2022-02-13 10:32:56</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1291,53 +1291,53 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1349,12 +1349,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1374,53 +1374,53 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:02:56</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1432,22 +1432,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1457,57 +1457,57 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>根据公司业绩提供</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1515,82 +1515,82 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>云密城</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部/产品部</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折</t>
-        </is>
-      </c>
+          <t>1-3个月，看领导给你的评价，</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>8折，两个月的试用</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1598,82 +1598,82 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 07:19:05</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1681,19 +1681,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1701,7 +1697,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1711,48 +1707,56 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>试用期 3个月，8折，转正返还</t>
-        </is>
-      </c>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+          <t>2022-02-11 10:04:17</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1760,53 +1764,77 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1815,67 +1843,122 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>云账房</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>地址：南站绿地之窗</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>中台</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>一个月平均加班天数3到4天</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -1895,94 +1978,19 @@
 }</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>8折</t>
         </is>
       </c>
     </row>
@@ -1992,68 +2000,72 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>8折</t>
         </is>
       </c>
     </row>
@@ -2063,24 +2075,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -2093,50 +2097,46 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -2146,76 +2146,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
     </row>
@@ -2225,80 +2229,76 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
     </row>
@@ -2308,28 +2308,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2346,38 +2350,38 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2387,27 +2391,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2417,46 +2417,50 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
     </row>
@@ -2466,17 +2470,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2486,7 +2490,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2496,46 +2500,46 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
     </row>
@@ -2545,15 +2549,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2571,38 +2579,46 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2612,19 +2628,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2632,7 +2644,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2642,46 +2654,38 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
     </row>
@@ -2691,15 +2695,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2707,56 +2715,56 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2774,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2782,56 +2790,56 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2849,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2857,46 +2865,58 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2904,19 +2924,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2934,44 +2950,111 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>上下半年绩效</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>是否打折，比如 xx%。</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,47 +531,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Honeywell（霍尼韦尔）</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>江宁大学城</t>
+          <t>雨花润和软件园</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>软件</t>
+          <t>工具开发部</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>测试开发工程师</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8:30-17:00</t>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11:30-13:00</t>
+          <t>11:30-12:30(实际1.5h)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>工资全额的10%+年底补充年薪5%</t>
+          <t>工资全额的12%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>固定13薪，额外奖金1个月左右</t>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -581,28 +581,28 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>12天年假</t>
+          <t>有，按国家规定执行，随时都可以休</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-06-23 10:02:47</t>
+          <t>2022-06-23 10:03:55</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -614,74 +614,78 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>宝马诚迈信息技术有限公司</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天隆寺金地威新</t>
+          <t>江宁大学城</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>开发部</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>测试开发工程师</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:30-17:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:30-13:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>工资全额的10%+年底补充年薪5%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>一个月</t>
+          <t>固定13薪，额外奖金1个月左右</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3个月，不打折</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>10天起+12天病假</t>
+          <t>12天年假</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>刷脸闸机</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>不打卡</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-06-23 10:01:26</t>
+          <t>2022-06-23 10:02:47</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -693,78 +697,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>新康众有限公司（江苏康众汽配）</t>
+          <t>宝马诚迈信息技术有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江苏省南京市建邺区</t>
+          <t>天隆寺金地威新</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>技术中心-供应链</t>
+          <t>开发部</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00-18：00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>不强制加班，但是你没法早走，经常晚上开会</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>个人1500+公司1500</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>hr说是3个月，实则0</t>
+          <t>一个月</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>试用期3个月；不打折。</t>
+          <t>3个月，不打折</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
+          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>入职满3年有三天，且没有陪产假这些。</t>
+          <t>10天起+12天病假</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
-        </is>
-      </c>
+          <t>刷脸闸机</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-06-23 10:00:12</t>
+          <t>2022-06-23 10:01:26</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -776,78 +776,78 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>中国电子云</t>
+          <t>新康众有限公司（江苏康众汽配）</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>雨花台区凯润大厦</t>
+          <t>江苏省南京市建邺区</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>存储开发部</t>
+          <t>技术中心-供应链</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>分布式存储开发工程师 C++/Go</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:00-17:30，弹性1小时</t>
+          <t>9:00-18：00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
+          <t>不强制加班，但是你没法早走，经常晚上开会</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>个人1500+公司1500</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>14薪，看考核</t>
+          <t>hr说是3个月，实则0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折</t>
+          <t>试用期3个月；不打折。</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>转正后按照有年假的</t>
+          <t>入职满3年有三天，且没有陪产假这些。</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>手机打卡，公司附近500m左右</t>
+          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
+          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-06-23 09:58:51</t>
+          <t>2022-06-23 10:00:12</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -859,78 +859,78 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>紫金山实验室</t>
+          <t>中国电子云</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>雨花台区凯润大厦</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>未来网络</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>网络/区块链/k8s</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>基本上很少加班</t>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>总包*0.7/12，比例缴纳12%</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>总包*0.2</t>
+          <t>14薪，看考核</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>试用期6月数；工资不打折</t>
+          <t>试用期6个月，不打折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>按照国家法定节假日。</t>
+          <t>转正后按照有年假的</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
+          <t>手机打卡，公司附近500m左右</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-06-23 09:40:05</t>
+          <t>2022-06-23 09:58:51</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -942,27 +942,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>紫金山实验室</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江苏省南京市鼓楼区</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>未来网络</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>网络/区块链/k8s</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -972,48 +972,48 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>基本上很少加班</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>总包*0.7/12，比例缴纳12%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>总包*0.2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>试用期6月数；工资不打折</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>按照国家法定节假日。</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-03-09 02:20:30</t>
+          <t>2022-06-23 09:40:05</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1025,78 +1025,78 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>江宁正方中路</t>
+          <t>江苏省南京市鼓楼区</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-03-09 02:21:16</t>
+          <t>2022-03-09 02:20:30</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1108,70 +1108,78 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>云密城J</t>
+          <t>江宁正方中路</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
+          <t>自带</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
+          <t>严格打卡，钉钉。</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-03-09 02:18:53</t>
+          <t>2022-03-09 02:21:16</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1183,27 +1191,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>明略科技</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>云密城J</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1213,48 +1221,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>三个月, 八折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>无, 所有节假日都少放几天</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-02-13 10:32:56</t>
+          <t>2022-03-09 02:18:53</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1266,22 +1266,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1291,53 +1291,53 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不加班, 但工作量大</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>工资*0.8*8%</t>
+          <t>具体基数忘了, 公司交一千多</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>三个月, 八折</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
+          <t>2022-02-13 10:32:56</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1349,12 +1349,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1374,53 +1374,53 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1432,12 +1432,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1457,53 +1457,53 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:02:56</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1515,22 +1515,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1540,57 +1540,57 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>根据公司业绩提供</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1598,82 +1598,82 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>云密城</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部/产品部</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折</t>
-        </is>
-      </c>
+          <t>1-3个月，看领导给你的评价，</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>8折，两个月的试用</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1681,82 +1681,82 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 07:19:05</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1764,19 +1764,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>Java</t>
@@ -1784,7 +1780,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1794,48 +1790,56 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>试用期 3个月，8折，转正返还</t>
-        </is>
-      </c>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+          <t>2022-02-11 10:04:17</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1843,53 +1847,77 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1898,67 +1926,122 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>云账房</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>地址：南站绿地之窗</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>中台</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>一个月平均加班天数3到4天</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -1978,94 +2061,19 @@
 }</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>8折</t>
         </is>
       </c>
     </row>
@@ -2075,68 +2083,72 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>8折</t>
         </is>
       </c>
     </row>
@@ -2146,24 +2158,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -2176,50 +2180,46 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -2229,76 +2229,80 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
     </row>
@@ -2308,80 +2312,76 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
     </row>
@@ -2391,28 +2391,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2429,38 +2433,38 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2470,27 +2474,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2500,46 +2500,50 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
     </row>
@@ -2549,17 +2553,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2569,7 +2573,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2579,46 +2583,46 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
     </row>
@@ -2628,15 +2632,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2654,38 +2662,46 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2695,19 +2711,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2715,7 +2727,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2725,46 +2737,38 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
     </row>
@@ -2774,15 +2778,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2790,56 +2798,56 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2849,12 +2857,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2865,56 +2873,56 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
     </row>
@@ -2924,12 +2932,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2940,46 +2948,58 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2987,19 +3007,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>Java</t>
@@ -3017,44 +3033,111 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>上下半年绩效</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>是否打折，比如 xx%。</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,78 +531,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>奥特酷智能科技（南京）有限公司</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>雨花润和软件园</t>
+          <t>江苏省南京市浦口区</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>工具开发部</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11:30-12:30(实际1.5h)</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>工资全额的12%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
+          <t>看公司情况 一般有</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Dell Precision 3651/Thinkpad P14s</t>
+          <t>网吧工位，外包是戴尔笔记本</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>有，按国家规定执行，随时都可以休</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-06-23 10:03:55</t>
+          <t>2022-06-23 10:05:06</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -614,78 +610,78 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Honeywell（霍尼韦尔）</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江宁大学城</t>
+          <t>南京市九龙湖企业总部园</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>软件</t>
+          <t>硬件</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>测试开发工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8:30-17:00</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11:30-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
+          <t>双休，平时加班不多，看部门</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>工资全额的10%+年底补充年薪5%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>固定13薪，额外奖金1个月左右</t>
+          <t>1个月，根据绩效浮动</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+          <t>6个月, 不打折</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
+          <t>网吧工位，笔记本+显示器</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12天年假</t>
+          <t>5天，一般会多送些</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-06-23 10:02:47</t>
+          <t>2022-06-23 10:04:35</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -697,17 +693,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>宝马诚迈信息技术有限公司</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天隆寺金地威新</t>
+          <t>雨花润和软件园</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>开发部</t>
+          <t>工具开发部</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -717,54 +713,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:30-12:30(实际1.5h)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>工资全额的12%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>一个月</t>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3个月，不打折</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10天起+12天病假</t>
+          <t>有，按国家规定执行，随时都可以休</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>刷脸闸机</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-06-23 10:01:26</t>
+          <t>2022-06-23 10:03:55</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -776,78 +776,78 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>新康众有限公司（江苏康众汽配）</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>江苏省南京市建邺区</t>
+          <t>江宁大学城</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>技术中心-供应链</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>测试开发工程师</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:00-18：00</t>
+          <t>8:30-17:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>11:30-13:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>不强制加班，但是你没法早走，经常晚上开会</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>个人1500+公司1500</t>
+          <t>工资全额的10%+年底补充年薪5%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>hr说是3个月，实则0</t>
+          <t>固定13薪，额外奖金1个月左右</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>试用期3个月；不打折。</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>入职满3年有三天，且没有陪产假这些。</t>
+          <t>12天年假</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-06-23 10:00:12</t>
+          <t>2022-06-23 10:02:47</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -859,37 +859,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>中国电子云</t>
+          <t>宝马诚迈信息技术有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>雨花台区凯润大厦</t>
+          <t>天隆寺金地威新</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>存储开发部</t>
+          <t>开发部</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>分布式存储开发工程师 C++/Go</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:00-17:30，弹性1小时</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -899,38 +899,34 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>14薪，看考核</t>
+          <t>一个月</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折</t>
+          <t>3个月，不打折</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>转正后按照有年假的</t>
+          <t>10天起+12天病假</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>手机打卡，公司附近500m左右</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
-        </is>
-      </c>
+          <t>刷脸闸机</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-06-23 09:58:51</t>
+          <t>2022-06-23 10:01:26</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -942,27 +938,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>紫金山实验室</t>
+          <t>新康众有限公司（江苏康众汽配）</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江苏省南京市建邺区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>未来网络</t>
+          <t>技术中心-供应链</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>网络/区块链/k8s</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-18：00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -972,48 +968,48 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>基本上很少加班</t>
+          <t>不强制加班，但是你没法早走，经常晚上开会</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>总包*0.7/12，比例缴纳12%</t>
+          <t>个人1500+公司1500</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>总包*0.2</t>
+          <t>hr说是3个月，实则0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>试用期6月数；工资不打折</t>
+          <t>试用期3个月；不打折。</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
+          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>按照国家法定节假日。</t>
+          <t>入职满3年有三天，且没有陪产假这些。</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
+          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
+          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-06-23 09:40:05</t>
+          <t>2022-06-23 10:00:12</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1025,78 +1021,78 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>中国电子云</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>江苏省南京市鼓楼区</t>
+          <t>雨花台区凯润大厦</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>14薪，看考核</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>试用期6个月，不打折</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>转正后按照有年假的</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>手机打卡，公司附近500m左右</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-03-09 02:20:30</t>
+          <t>2022-06-23 09:58:51</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1108,78 +1104,78 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>紫金山实验室</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>江宁正方中路</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>未来网络</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>网络/区块链/k8s</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>基本上很少加班</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>总包*0.7/12，比例缴纳12%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>总包*0.2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>试用期6月数；工资不打折</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>按照国家法定节假日。</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-03-09 02:21:16</t>
+          <t>2022-06-23 09:40:05</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1191,27 +1187,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>云密城J</t>
+          <t>江苏省南京市鼓楼区</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1221,40 +1217,48 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>根据工作年限, 第一年5天。</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
+          <t>钉钉</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-03-09 02:18:53</t>
+          <t>2022-03-09 02:20:30</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1266,78 +1270,78 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江宁正方中路</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>三个月, 八折</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-02-13 10:32:56</t>
+          <t>2022-03-09 02:21:16</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1349,78 +1353,70 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>明略科技</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>云密城J</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>工资*0.8*8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>5天</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>氛围不行，不适合长期发展</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
+          <t>2022-03-09 02:18:53</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1432,7 +1428,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1442,12 +1438,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1457,53 +1453,53 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>不加班, 但工作量大</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>具体基数忘了, 公司交一千多</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>三个月, 八折</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
+          <t>2022-02-13 10:32:56</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1515,12 +1511,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1530,7 +1526,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1540,53 +1536,53 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1598,22 +1594,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1623,57 +1619,57 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>基数底薪，比例 10%。</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>三个月八折</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:56</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1681,43 +1677,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1727,35 +1727,31 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1764,18 +1760,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>云密城</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>研发部/产品部</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1785,59 +1785,55 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
+          <t>1-3个月，看领导给你的评价，</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>8折，两个月的试用</t>
         </is>
       </c>
     </row>
@@ -1847,77 +1843,81 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
+          <t>江北研创园</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>营销IT事业部</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>看情况，基本到点就走，除非有上线</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>试用期 3个月，8折，转正返还</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
+          <t>2022-02-10 07:19:05</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1926,54 +1926,82 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
+          <t>鼓楼区</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>9:00-18:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+          <t>每两个月发一天</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
+          <t>2022-02-11 10:04:17</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1981,67 +2009,201 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>南京叶子科技有限公司</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>云账房</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>地址：南站绿地之窗</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>中台</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>9:30-18:30</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>1.5h</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
         <is>
           <t>去年只发了半个月</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
         <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -2061,165 +2223,19 @@
 }</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>8折</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>9:00-18:00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1h</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>124 加班，35 正常；大小周</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>一般无</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:26:16</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>基数南京底薪，比例 8%</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -2229,12 +2245,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>江苏南京</t>
+          <t>鼓楼区</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2244,65 +2260,57 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>8折</t>
         </is>
       </c>
     </row>
@@ -2312,76 +2320,68 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
+          <t>秦淮区</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>前端</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -2391,80 +2391,80 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
+          <t>江苏南京</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>八折</t>
         </is>
       </c>
     </row>
@@ -2474,76 +2474,76 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>建邺</t>
+          <t>天溯产业园</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
     </row>
@@ -2553,76 +2553,80 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
+          <t>白下（年中搬到河西）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>内推VX：Just1n</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2632,27 +2636,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>软件大道</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2662,46 +2662,50 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
     </row>
@@ -2711,15 +2715,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>雨花台区软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2727,7 +2735,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2737,38 +2745,46 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
+          <t>2022-01-24 14:29:37</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>最低，双边合计512</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
     </row>
@@ -2778,17 +2794,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
+          <t>软件大道</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>web后台</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2798,7 +2814,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2808,41 +2824,41 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1个月工资</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:25:34</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>工资八折的10%</t>
+          <t>基数5500，比例10%</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2857,12 +2873,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>雨花台</t>
+          <t>雨花台软件谷科创城</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2873,56 +2889,48 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>固定13薪</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>基数5k，比例8%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
     </row>
@@ -2932,15 +2940,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华为南研所</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2948,56 +2960,56 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -3007,12 +3019,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -3023,46 +3035,58 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+          <t>配笔记本+显示器</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>不打卡</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
+          <t>基数5k，比例8%</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3070,19 +3094,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>华为南研所</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>Java</t>
@@ -3090,54 +3110,196 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>配win台式机+双屏</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>必须按时打卡</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
+          <t>2022-01-24 14:17:32</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>满帮</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>是否打折，比如 xx%。</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,74 +531,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>江苏通付盾区块链科技有限公司</t>
+          <t>平安科技</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>江苏省南京市浦口区</t>
+          <t>南京市雨花台区</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>电力信息</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>驻场外包加班多 就一个餐补25 可以调休</t>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>全额的12%</t>
+          <t>基数工资全额8%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>看公司情况 一般有</t>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>网吧工位，外包是戴尔笔记本</t>
-        </is>
-      </c>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>我在驻场外包是看客户方</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-06-23 10:05:06</t>
+          <t>2022-06-23 10:05:48</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -610,17 +610,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>鱼快创领（南京）</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南京市九龙湖企业总部园</t>
+          <t>江苏省南京市浦口区</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>硬件</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>双休，平时加班不多，看部门</t>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -650,38 +650,34 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1个月，根据绩效浮动</t>
+          <t>看公司情况 一般有</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6个月, 不打折</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>网吧工位，笔记本+显示器</t>
+          <t>网吧工位，外包是戴尔笔记本</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5天，一般会多送些</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-06-23 10:04:35</t>
+          <t>2022-06-23 10:05:06</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -693,78 +689,78 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>奥特酷智能科技（南京）有限公司</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>雨花润和软件园</t>
+          <t>南京市九龙湖企业总部园</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>工具开发部</t>
+          <t>硬件</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11:30-12:30(实际1.5h)</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
+          <t>双休，平时加班不多，看部门</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>工资全额的12%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
+          <t>1个月，根据绩效浮动</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+          <t>6个月, 不打折</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Dell Precision 3651/Thinkpad P14s</t>
+          <t>网吧工位，笔记本+显示器</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>有，按国家规定执行，随时都可以休</t>
+          <t>5天，一般会多送些</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-06-23 10:03:55</t>
+          <t>2022-06-23 10:04:35</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -776,47 +772,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Honeywell（霍尼韦尔）</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>江宁大学城</t>
+          <t>雨花润和软件园</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>软件</t>
+          <t>工具开发部</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>测试开发工程师</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8:30-17:00</t>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11:30-13:00</t>
+          <t>11:30-12:30(实际1.5h)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>工资全额的10%+年底补充年薪5%</t>
+          <t>工资全额的12%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>固定13薪，额外奖金1个月左右</t>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -826,28 +822,28 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12天年假</t>
+          <t>有，按国家规定执行，随时都可以休</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-06-23 10:02:47</t>
+          <t>2022-06-23 10:03:55</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -859,74 +855,78 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>宝马诚迈信息技术有限公司</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天隆寺金地威新</t>
+          <t>江宁大学城</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>开发部</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>测试开发工程师</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:30-17:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:30-13:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>工资全额的10%+年底补充年薪5%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>一个月</t>
+          <t>固定13薪，额外奖金1个月左右</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3个月，不打折</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10天起+12天病假</t>
+          <t>12天年假</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>刷脸闸机</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>不打卡</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-06-23 10:01:26</t>
+          <t>2022-06-23 10:02:47</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -938,78 +938,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>新康众有限公司（江苏康众汽配）</t>
+          <t>宝马诚迈信息技术有限公司</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江苏省南京市建邺区</t>
+          <t>天隆寺金地威新</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>技术中心-供应链</t>
+          <t>开发部</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00-18：00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>不强制加班，但是你没法早走，经常晚上开会</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>个人1500+公司1500</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>hr说是3个月，实则0</t>
+          <t>一个月</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>试用期3个月；不打折。</t>
+          <t>3个月，不打折</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
+          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>入职满3年有三天，且没有陪产假这些。</t>
+          <t>10天起+12天病假</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
-        </is>
-      </c>
+          <t>刷脸闸机</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-06-23 10:00:12</t>
+          <t>2022-06-23 10:01:26</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1021,78 +1017,78 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>中国电子云</t>
+          <t>新康众有限公司（江苏康众汽配）</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>雨花台区凯润大厦</t>
+          <t>江苏省南京市建邺区</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>存储开发部</t>
+          <t>技术中心-供应链</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>分布式存储开发工程师 C++/Go</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-17:30，弹性1小时</t>
+          <t>9:00-18：00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
+          <t>不强制加班，但是你没法早走，经常晚上开会</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>个人1500+公司1500</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>14薪，看考核</t>
+          <t>hr说是3个月，实则0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折</t>
+          <t>试用期3个月；不打折。</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>转正后按照有年假的</t>
+          <t>入职满3年有三天，且没有陪产假这些。</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>手机打卡，公司附近500m左右</t>
+          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
+          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-06-23 09:58:51</t>
+          <t>2022-06-23 10:00:12</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1104,78 +1100,78 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>紫金山实验室</t>
+          <t>中国电子云</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>雨花台区凯润大厦</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>未来网络</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>网络/区块链/k8s</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>基本上很少加班</t>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>总包*0.7/12，比例缴纳12%</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>总包*0.2</t>
+          <t>14薪，看考核</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>试用期6月数；工资不打折</t>
+          <t>试用期6个月，不打折</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>按照国家法定节假日。</t>
+          <t>转正后按照有年假的</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
+          <t>手机打卡，公司附近500m左右</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-06-23 09:40:05</t>
+          <t>2022-06-23 09:58:51</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1187,27 +1183,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>紫金山实验室</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>江苏省南京市鼓楼区</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>未来网络</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>网络/区块链/k8s</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1217,48 +1213,48 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>基本上很少加班</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>总包*0.7/12，比例缴纳12%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>总包*0.2</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>试用期6月数；工资不打折</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>按照国家法定节假日。</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-03-09 02:20:30</t>
+          <t>2022-06-23 09:40:05</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1270,78 +1266,78 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江宁正方中路</t>
+          <t>江苏省南京市鼓楼区</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-03-09 02:21:16</t>
+          <t>2022-03-09 02:20:30</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1353,70 +1349,78 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>云密城J</t>
+          <t>江宁正方中路</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
+          <t>自带</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
+          <t>严格打卡，钉钉。</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-03-09 02:18:53</t>
+          <t>2022-03-09 02:21:16</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1428,27 +1432,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>明略科技</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>云密城J</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1458,48 +1462,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>三个月, 八折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>无, 所有节假日都少放几天</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-02-13 10:32:56</t>
+          <t>2022-03-09 02:18:53</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1511,22 +1507,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1536,53 +1532,53 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不加班, 但工作量大</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>工资*0.8*8%</t>
+          <t>具体基数忘了, 公司交一千多</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>三个月, 八折</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
+          <t>2022-02-13 10:32:56</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1594,12 +1590,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1619,53 +1615,53 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
@@ -1677,12 +1673,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1692,7 +1688,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1702,53 +1698,53 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:02:56</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
@@ -1760,22 +1756,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1785,57 +1781,57 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>根据公司业绩提供</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1843,82 +1839,82 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>云密城</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部/产品部</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折</t>
-        </is>
-      </c>
+          <t>1-3个月，看领导给你的评价，</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>8折，两个月的试用</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1926,82 +1922,82 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 07:19:05</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2009,19 +2005,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2029,7 +2021,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2039,48 +2031,56 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>试用期 3个月，8折，转正返还</t>
-        </is>
-      </c>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+          <t>2022-02-11 10:04:17</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2088,53 +2088,77 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2143,67 +2167,122 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>云账房</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>地址：南站绿地之窗</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>中台</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>一个月平均加班天数3到4天</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -2223,94 +2302,19 @@
 }</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>8折</t>
         </is>
       </c>
     </row>
@@ -2320,68 +2324,72 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>一般无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>基数南京底薪，比例 8%</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>3个月8折</t>
+          <t>8折</t>
         </is>
       </c>
     </row>
@@ -2391,24 +2399,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -2421,50 +2421,46 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>3个月8折</t>
         </is>
       </c>
     </row>
@@ -2474,76 +2470,80 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>八折</t>
         </is>
       </c>
     </row>
@@ -2553,80 +2553,76 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
     </row>
@@ -2636,28 +2632,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2674,38 +2674,38 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2715,27 +2715,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2745,46 +2741,50 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
     </row>
@@ -2794,17 +2794,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2824,46 +2824,46 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>124固定加班到9点</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>最低，双边合计512</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
     </row>
@@ -2873,15 +2873,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2899,38 +2903,46 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
+          <t>2022-01-24 14:25:34</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -2940,19 +2952,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2960,7 +2968,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2970,46 +2978,38 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
     </row>
@@ -3019,15 +3019,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>Java</t>
@@ -3035,56 +3039,56 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>固定13薪</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>基数5k，比例8%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>不打折</t>
         </is>
       </c>
     </row>
@@ -3094,12 +3098,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -3110,56 +3114,56 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定13薪</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3173,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -3185,46 +3189,58 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3232,19 +3248,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>Java</t>
@@ -3262,44 +3274,111 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>上下半年绩效</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>基数 xxxx，比例 xx%</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>是否打折，比如 xx%。</t>
         </is>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,57 +471,57 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>公积金比例</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>试用期工资</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>公积金</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>试用期</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>评论</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>更新时间</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>公积金比例</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>试用期工资</t>
         </is>
       </c>
     </row>
@@ -531,74 +531,78 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>平安科技</t>
+          <t>南京通达海科技股份有限公司</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南京市雨花台区</t>
+          <t>鼓楼区联创大厦B座</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>平安科技（南京）</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8:55-18:00</t>
+          <t>8.50-18:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>11.45-1.15</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+          <t>每周三固定加班到九点，其他根据产线情况，有忙有闲</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>基数工资全额8%</t>
+          <t>全额*10%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+          <t>固定13薪资+一个月年终（条线达标可上浮）</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>试用期3个月,工资不打折</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>三个月 薪资80%</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>格子间，戴尔双屏</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>过试用期开始有年假，年假比法定要更多</t>
+          <t>按国定规定走</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>人脸打卡机</t>
+          <t>上班指纹打卡，下班不打卡</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+          <t>个别条线后端需要写前端</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-06-23 10:05:48</t>
+          <t>2022-06-24 02:47:06</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -610,78 +614,78 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>江苏通付盾区块链科技有限公司</t>
+          <t>平安科技</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江苏省南京市浦口区</t>
+          <t>南京市雨花台区</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>电力信息</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>驻场外包加班多 就一个餐补25 可以调休</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>全额的12%</t>
-        </is>
-      </c>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>看公司情况 一般有</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>三个月, 8折</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>网吧工位，外包是戴尔笔记本</t>
-        </is>
-      </c>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>我在驻场外包是看客户方</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-06-23 10:05:06</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+          <t>2022-06-23 10:05:48</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>基数工资全额8%</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -689,17 +693,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>鱼快创领（南京）</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南京市九龙湖企业总部园</t>
+          <t>江苏省南京市浦口区</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>硬件</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -709,62 +713,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>双休，平时加班不多，看部门</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>全额的12%</t>
-        </is>
-      </c>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1个月，根据绩效浮动</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>6个月, 不打折</t>
-        </is>
-      </c>
+          <t>看公司情况 一般有</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>网吧工位，笔记本+显示器</t>
+          <t>网吧工位，外包是戴尔笔记本</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5天，一般会多送些</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-06-23 10:04:35</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+          <t>2022-06-23 10:05:06</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>全额的12%</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>三个月, 8折</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -772,82 +772,82 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>奥特酷智能科技（南京）有限公司</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>雨花润和软件园</t>
+          <t>南京市九龙湖企业总部园</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>工具开发部</t>
+          <t>硬件</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11:30-12:30(实际1.5h)</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>工资全额的12%</t>
-        </is>
-      </c>
+          <t>双休，平时加班不多，看部门</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
-        </is>
-      </c>
+          <t>1个月，根据绩效浮动</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Dell Precision 3651/Thinkpad P14s</t>
+          <t>网吧工位，笔记本+显示器</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>有，按国家规定执行，随时都可以休</t>
+          <t>5天，一般会多送些</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-06-23 10:03:55</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+          <t>2022-06-23 10:04:35</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>全额的12%</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>6个月, 不打折</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -855,82 +855,82 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Honeywell（霍尼韦尔）</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江宁大学城</t>
+          <t>雨花润和软件园</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>软件</t>
+          <t>工具开发部</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>测试开发工程师</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8:30-17:00</t>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11:30-13:00</t>
+          <t>11:30-12:30(实际1.5h)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>工资全额的10%+年底补充年薪5%</t>
-        </is>
-      </c>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>固定13薪，额外奖金1个月左右</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
-        </is>
-      </c>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12天年假</t>
+          <t>有，按国家规定执行，随时都可以休</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-06-23 10:02:47</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+          <t>2022-06-23 10:03:55</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>工资全额的12%</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -938,78 +938,82 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>宝马诚迈信息技术有限公司</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天隆寺金地威新</t>
+          <t>江宁大学城</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>开发部</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>测试开发工程师</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:30-17:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:30-13:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>全额12%</t>
-        </is>
-      </c>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>一个月</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>3个月，不打折</t>
-        </is>
-      </c>
+          <t>固定13薪，额外奖金1个月左右</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>10天起+12天病假</t>
+          <t>12天年假</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>刷脸闸机</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
+          <t>不打卡</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-06-23 10:01:26</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+          <t>2022-06-23 10:02:47</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>工资全额的10%+年底补充年薪5%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1017,82 +1021,78 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>新康众有限公司（江苏康众汽配）</t>
+          <t>宝马诚迈信息技术有限公司</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>江苏省南京市建邺区</t>
+          <t>天隆寺金地威新</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>技术中心-供应链</t>
+          <t>开发部</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-18：00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>不强制加班，但是你没法早走，经常晚上开会</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>个人1500+公司1500</t>
-        </is>
-      </c>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>hr说是3个月，实则0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>试用期3个月；不打折。</t>
-        </is>
-      </c>
+          <t>一个月</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
+          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>入职满3年有三天，且没有陪产假这些。</t>
+          <t>10天起+12天病假</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
-        </is>
-      </c>
+          <t>刷脸闸机</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-06-23 10:00:12</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+          <t>2022-06-23 10:01:26</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>全额12%</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>3个月，不打折</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1100,82 +1100,82 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>中国电子云</t>
+          <t>新康众有限公司（江苏康众汽配）</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>雨花台区凯润大厦</t>
+          <t>江苏省南京市建邺区</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>存储开发部</t>
+          <t>技术中心-供应链</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>分布式存储开发工程师 C++/Go</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:00-17:30，弹性1小时</t>
+          <t>9:00-18：00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>全额12%</t>
-        </is>
-      </c>
+          <t>不强制加班，但是你没法早走，经常晚上开会</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>14薪，看考核</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>试用期6个月，不打折</t>
-        </is>
-      </c>
+          <t>hr说是3个月，实则0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>转正后按照有年假的</t>
+          <t>入职满3年有三天，且没有陪产假这些。</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>手机打卡，公司附近500m左右</t>
+          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
+          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-06-23 09:58:51</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+          <t>2022-06-23 10:00:12</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>个人1500+公司1500</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>试用期3个月；不打折。</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1183,82 +1183,82 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>紫金山实验室</t>
+          <t>中国电子云</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>雨花台区凯润大厦</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>未来网络</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>网络/区块链/k8s</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>基本上很少加班</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>总包*0.7/12，比例缴纳12%</t>
-        </is>
-      </c>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>总包*0.2</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>试用期6月数；工资不打折</t>
-        </is>
-      </c>
+          <t>14薪，看考核</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>按照国家法定节假日。</t>
+          <t>转正后按照有年假的</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
+          <t>手机打卡，公司附近500m左右</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-06-23 09:40:05</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+          <t>2022-06-23 09:58:51</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>全额12%</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>试用期6个月，不打折</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1266,27 +1266,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>紫金山实验室</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江苏省南京市鼓楼区</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>未来网络</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>网络/区块链/k8s</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1296,52 +1296,52 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>7000，比例 12%。</t>
-        </is>
-      </c>
+          <t>基本上很少加班</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>3个月，9折。</t>
-        </is>
-      </c>
+          <t>总包*0.2</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>按照国家法定节假日。</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-03-09 02:20:30</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+          <t>2022-06-23 09:40:05</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>总包*0.7/12，比例缴纳12%</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>试用期6月数；工资不打折</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1349,82 +1349,82 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>江宁正方中路</t>
+          <t>江苏省南京市鼓楼区</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>记不清</t>
-        </is>
-      </c>
+          <t>不强制, 但工作量大。</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>不清楚</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>3个月</t>
-        </is>
-      </c>
+          <t>根据考核情况</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-03-09 02:21:16</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+          <t>2022-03-09 02:20:30</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>7000，比例 12%。</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>3个月，9折。</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1432,74 +1432,82 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>云密城J</t>
+          <t>江宁正方中路</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>工资10%</t>
-        </is>
-      </c>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>半年 不打折</t>
-        </is>
-      </c>
+          <t>不清楚</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
+          <t>自带</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
+          <t>严格打卡，钉钉。</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-03-09 02:18:53</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+          <t>2022-03-09 02:21:16</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>记不清</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>3个月</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1507,27 +1515,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>明略科技</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>云密城J</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1537,52 +1545,44 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>具体基数忘了, 公司交一千多</t>
-        </is>
-      </c>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>三个月, 八折</t>
-        </is>
-      </c>
+          <t>说是3个月，不确信可不可靠</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>无, 所有节假日都少放几天</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-02-13 10:32:56</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+          <t>2022-03-09 02:18:53</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>工资10%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>半年 不打折</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1590,22 +1590,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1615,57 +1615,57 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>工资*0.8*8%</t>
-        </is>
-      </c>
+          <t>不加班, 但工作量大</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
-        </is>
-      </c>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+          <t>2022-02-13 10:32:56</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>具体基数忘了, 公司交一千多</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>三个月, 八折</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1698,57 +1698,57 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>基数底薪，比例 10%。</t>
-        </is>
-      </c>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>三个月八折</t>
-        </is>
-      </c>
+          <t>一个月左右或者没有一个月</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+          <t>2022-02-12 07:05:14</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>工资*0.8*8%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1756,12 +1756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1781,57 +1781,57 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>基数8%。</t>
-        </is>
-      </c>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折</t>
-        </is>
-      </c>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+          <t>2022-02-12 07:02:56</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>基数底薪，比例 10%。</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>三个月八折</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1839,22 +1839,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1864,55 +1864,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
+          <t>2022-02-12 07:02:08</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
+          <t>基数8%。</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>8折，两个月的试用</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
     </row>
@@ -1922,81 +1922,81 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>云密城</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部/产品部</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>1-3个月，看领导给你的评价，</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>8折，两个月的试用</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
+          <t>2022-02-10 14:14:05</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -2005,80 +2005,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>江北研创园</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>看情况，基本到点就走，除非有上线</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>基数 工资80%，比例 7%</t>
-        </is>
-      </c>
+          <t>2022-02-10 07:19:05</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
     </row>
@@ -2088,19 +2088,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>营销IT事业部</t>
-        </is>
-      </c>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2108,7 +2104,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2118,44 +2114,52 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>比例 10%左右</t>
+          <t>基数 工资80%，比例 7%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
+          <t>承诺13薪-14；！！第一年无</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>试用期 3个月，8折，转正返还</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>每两个月发一天</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
+          <t>2022-02-11 10:04:17</t>
         </is>
       </c>
       <c r="R21" t="inlineStr"/>
@@ -2167,54 +2171,78 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京叶子科技有限公司</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>正常下班双休，视项目进度自行申请加班</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
+          <t>2022-02-07 06:37:12</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2222,67 +2250,130 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>云账房</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>地址：南站绿地之窗</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>中台</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>去年只发了半个月</t>
-        </is>
-      </c>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>云账房</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>地址：南站绿地之窗</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>中台</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>一个月平均加班天数3到4天</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>三个月，薪资打八折</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -2302,96 +2393,13 @@
 }</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>三个月，薪资打八折</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>8折</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2399,70 +2407,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+          <t>鼓楼区</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>124 加班，35 正常；大小周</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>按需加班</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>基数 看个人，比例 5%</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>一般无</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>基数5000 按照绩效或多或少</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>8折</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
+          <t>钉钉严格打卡</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2022-02-06 13:26:16</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>基数南京底薪，比例 8%</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>3个月8折</t>
-        </is>
-      </c>
+          <t>2022-02-06 13:30:06</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2470,24 +2482,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>江苏南京</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>秦淮区</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
           <t>9:00-18:00</t>
@@ -2500,52 +2504,48 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>124 加班，35 正常；大小周</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>基数南京底薪，比例 8%</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>一般无</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>3个月8折</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>最低额度</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>八折</t>
-        </is>
-      </c>
+          <t>2022-02-06 13:26:16</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2553,78 +2553,82 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>江苏南京</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>最低额度</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>八折</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>基础工资的8%</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>试用期6个月，100%工资不打折</t>
-        </is>
-      </c>
+          <t>2022-01-25 02:22:42</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2632,82 +2636,78 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>研发中心</t>
-        </is>
-      </c>
+          <t>天溯产业园</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>不加班</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>看部门，不强制，有工时排名。</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>基础工资的8%</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>看部门盈利情况和个人绩效定</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>不打折</t>
-        </is>
-      </c>
+          <t>2022-01-25 01:58:09</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2715,28 +2715,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>建邺</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>白下（年中搬到河西）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>研发中心</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2744,49 +2748,49 @@
           <t>不加班</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>13薪，每年调薪一次</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>完全不打卡</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>内推VX：Just1n</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>应届生八折，有工作经验的不打折</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:35:55</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2794,27 +2798,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2824,48 +2824,52 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>13薪，每年调薪一次</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>最低，双边合计512</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>三个月，打八折</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:32:45</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2873,17 +2877,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>软件大道</t>
+          <t>雨花台区软件谷科创城</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2893,7 +2897,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2903,48 +2907,48 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>124固定加班到9点</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>最低，双边合计512</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>三个月，打八折</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>基数5500，比例10%</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>不打折</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:29:37</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2952,15 +2956,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>软件大道</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>Java</t>
@@ -2978,40 +2986,48 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+          <t>没事到点走，部门氛围卷</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>基数5500，比例10%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
+          <t>2022-01-24 14:25:34</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>6个月不打折。</t>
-        </is>
-      </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3019,19 +3035,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>web后台</t>
-        </is>
-      </c>
+          <t>雨花台软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>Java</t>
@@ -3039,7 +3051,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3049,48 +3061,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>周1,2,4正常加班，不想加班也行</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>1个月工资</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>6个月不打折。</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>工资八折的10%</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>不打折</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:21:22</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3098,15 +3102,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>雨花台</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>Java</t>
@@ -3114,58 +3122,58 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>工资八折的10%</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>固定13薪</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>1个月工资</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>基数5k，比例8%</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:19:34</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3173,12 +3181,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华为南研所</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -3189,58 +3197,58 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>基数5k，比例8%</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>固定13薪</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>基础工资的5%</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>试用期6个月，100%工资不打折</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:17:01</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3248,12 +3256,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>华为南研所</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -3264,45 +3272,57 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>基础工资的5%</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>看部门盈利情况和个人绩效定</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>试用期6个月，100%工资不打折</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+          <t>配win台式机+双屏</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
+          <t>2022-01-24 14:17:32</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -3311,19 +3331,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>满帮</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>Java</t>
@@ -3341,48 +3357,115 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>上下半年绩效</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>基数 xxxx，比例 xx%</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
           <t>2022-01-24 13:11:01</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>基数 xxxx，比例 xx%</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>是否打折，比如 xx%。</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,78 +531,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南京通达海科技股份有限公司</t>
+          <t>清云智飞</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼓楼区联创大厦B座</t>
+          <t>江宁区区</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.50-18:00</t>
+          <t>8:30-18:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11.45-1.15</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>每周三固定加班到九点，其他根据产线情况，有忙有闲</t>
+          <t>上线当天要支撑正常上线，其他一般不加</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>全额*10%</t>
+          <t>基数工资40%，比例 8%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>固定13薪资+一个月年终（条线达标可上浮）</t>
+          <t>14薪</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>三个月 薪资80%</t>
+          <t>80%。</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>格子间，戴尔双屏</t>
+          <t>一个人工位1.7m左右吧</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>按国定规定走</t>
+          <t>5天，工作10年10天</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>上班指纹打卡，下班不打卡</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>个别条线后端需要写前端</t>
-        </is>
-      </c>
+          <t>企业微信，可以弹性打卡30分钟</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2022-06-24 02:47:06</t>
+          <t>2022-07-18 10:13:58</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -614,27 +610,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>平安科技</t>
+          <t>南京机敏</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南京市雨花台区</t>
+          <t>雨花区云密城</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>平安科技（南京）</t>
+          <t>研发一组</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8:55-18:00</t>
+          <t>9:00-18:30（若8:50到 则可18:20走 以此类推）</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -644,48 +640,48 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>无固定加班，每月最后一周的周六加班 可调休</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>基数 &lt;7k，比例 8</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>1-3个月 详情不明</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>两个月 薪资80% 。</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>网吧工位，显示器看库存 aoc / 联想，电脑可提供（不得行），有自购策略</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>过试用期开始有年假，年假比法定要更多</t>
+          <t>不知</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>人脸打卡机</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
-        </is>
-      </c>
+          <t>钉钉打卡 （无迟到一说）</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-06-23 10:05:48</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>基数工资全额8%</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>试用期3个月,工资不打折</t>
-        </is>
-      </c>
+          <t>2022-06-24 02:47:44</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -693,17 +689,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>江苏通付盾区块链科技有限公司</t>
+          <t>南京通达海科技股份有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江苏省南京市浦口区</t>
+          <t>鼓楼区联创大厦B座</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>电力信息</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -713,58 +709,62 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+          <t>8.50-18:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>11.45-1.15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>驻场外包加班多 就一个餐补25 可以调休</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>每周三固定加班到九点，其他根据产线情况，有忙有闲</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>全额*10%</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>看公司情况 一般有</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>固定13薪资+一个月年终（条线达标可上浮）</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>三个月 薪资80%</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>网吧工位，外包是戴尔笔记本</t>
+          <t>格子间，戴尔双屏</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>按国定规定走</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>我在驻场外包是看客户方</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
+          <t>上班指纹打卡，下班不打卡</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>个别条线后端需要写前端</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-06-23 10:05:06</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>全额的12%</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>三个月, 8折</t>
-        </is>
-      </c>
+          <t>2022-06-24 02:47:06</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -772,27 +772,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>鱼快创领（南京）</t>
+          <t>平安科技</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南京市九龙湖企业总部园</t>
+          <t>南京市雨花台区</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>硬件</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -802,50 +802,46 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>双休，平时加班不多，看部门</t>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1个月，根据绩效浮动</t>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>网吧工位，笔记本+显示器</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>5天，一般会多送些</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>人脸打卡机</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-06-23 10:04:35</t>
+          <t>2022-06-23 10:05:48</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>全额的12%</t>
+          <t>基数工资全额8%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>6个月, 不打折</t>
+          <t>试用期3个月,工资不打折</t>
         </is>
       </c>
     </row>
@@ -855,80 +851,76 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>奥特酷智能科技（南京）有限公司</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>雨花润和软件园</t>
+          <t>江苏省南京市浦口区</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>工具开发部</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11:30-12:30(实际1.5h)</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
+          <t>看公司情况 一般有</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Dell Precision 3651/Thinkpad P14s</t>
+          <t>网吧工位，外包是戴尔笔记本</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>有，按国家规定执行，随时都可以休</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-06-23 10:03:55</t>
+          <t>2022-06-23 10:05:06</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>工资全额的12%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
     </row>
@@ -938,80 +930,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Honeywell（霍尼韦尔）</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江宁大学城</t>
+          <t>南京市九龙湖企业总部园</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>软件</t>
+          <t>硬件</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>测试开发工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8:30-17:00</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11:30-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
+          <t>双休，平时加班不多，看部门</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>固定13薪，额外奖金1个月左右</t>
+          <t>1个月，根据绩效浮动</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
+          <t>网吧工位，笔记本+显示器</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12天年假</t>
+          <t>5天，一般会多送些</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-06-23 10:02:47</t>
+          <t>2022-06-23 10:04:35</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>工资全额的10%+年底补充年薪5%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+          <t>6个月, 不打折</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1013,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>宝马诚迈信息技术有限公司</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天隆寺金地威新</t>
+          <t>雨花润和软件园</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>开发部</t>
+          <t>工具开发部</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1041,56 +1033,60 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:30-12:30(实际1.5h)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>一个月</t>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10天起+12天病假</t>
+          <t>有，按国家规定执行，随时都可以休</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>刷脸闸机</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-06-23 10:01:26</t>
+          <t>2022-06-23 10:03:55</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>工资全额的12%</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3个月，不打折</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
     </row>
@@ -1100,80 +1096,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>新康众有限公司（江苏康众汽配）</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>江苏省南京市建邺区</t>
+          <t>江宁大学城</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>技术中心-供应链</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>测试开发工程师</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9:00-18：00</t>
+          <t>8:30-17:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>11:30-13:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>不强制加班，但是你没法早走，经常晚上开会</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>hr说是3个月，实则0</t>
+          <t>固定13薪，额外奖金1个月左右</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>入职满3年有三天，且没有陪产假这些。</t>
+          <t>12天年假</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-06-23 10:00:12</t>
+          <t>2022-06-23 10:02:47</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>个人1500+公司1500</t>
+          <t>工资全额的10%+年底补充年薪5%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>试用期3个月；不打折。</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
     </row>
@@ -1183,70 +1179,66 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中国电子云</t>
+          <t>宝马诚迈信息技术有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>雨花台区凯润大厦</t>
+          <t>天隆寺金地威新</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>存储开发部</t>
+          <t>开发部</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>分布式存储开发工程师 C++/Go</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9:00-17:30，弹性1小时</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>14薪，看考核</t>
+          <t>一个月</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>转正后按照有年假的</t>
+          <t>10天起+12天病假</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>手机打卡，公司附近500m左右</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
-        </is>
-      </c>
+          <t>刷脸闸机</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-06-23 09:58:51</t>
+          <t>2022-06-23 10:01:26</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1256,7 +1248,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折</t>
+          <t>3个月，不打折</t>
         </is>
       </c>
     </row>
@@ -1266,27 +1258,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>紫金山实验室</t>
+          <t>新康众有限公司（江苏康众汽配）</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江苏省南京市建邺区</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>未来网络</t>
+          <t>技术中心-供应链</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>网络/区块链/k8s</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-18：00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1296,50 +1288,50 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>基本上很少加班</t>
+          <t>不强制加班，但是你没法早走，经常晚上开会</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>总包*0.2</t>
+          <t>hr说是3个月，实则0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
+          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>按照国家法定节假日。</t>
+          <t>入职满3年有三天，且没有陪产假这些。</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
+          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
+          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-06-23 09:40:05</t>
+          <t>2022-06-23 10:00:12</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>总包*0.7/12，比例缴纳12%</t>
+          <t>个人1500+公司1500</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>试用期6月数；工资不打折</t>
+          <t>试用期3个月；不打折。</t>
         </is>
       </c>
     </row>
@@ -1349,80 +1341,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>中国电子云</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>江苏省南京市鼓楼区</t>
+          <t>雨花台区凯润大厦</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>14薪，看考核</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>转正后按照有年假的</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>手机打卡，公司附近500m左右</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假， 晚上加班到19点可报销晚餐25元标准。</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-03-09 02:20:30</t>
+          <t>2022-06-23 09:58:51</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>试用期6个月，不打折</t>
         </is>
       </c>
     </row>
@@ -1432,80 +1424,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>紫金山实验室</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>江宁正方中路</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>未来网络</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>网络/区块链/k8s</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>基本上很少加班</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>总包*0.2</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>按照国家法定节假日。</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2022-03-09 02:21:16</t>
+          <t>2022-06-23 09:40:05</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>总包*0.7/12，比例缴纳12%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>试用期6月数；工资不打折</t>
         </is>
       </c>
     </row>
@@ -1515,27 +1507,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>云密城J</t>
+          <t>江苏省南京市鼓楼区</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1545,42 +1537,50 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr"/>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>根据工作年限, 第一年5天。</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
+          <t>钉钉</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2022-03-09 02:18:53</t>
+          <t>2022-03-09 02:20:30</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
     </row>
@@ -1590,80 +1590,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>江苏省南京市江宁区</t>
+          <t>江宁正方中路</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-02-13 10:32:56</t>
+          <t>2022-03-09 02:21:16</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>三个月, 八折</t>
+          <t>3个月</t>
         </is>
       </c>
     </row>
@@ -1673,80 +1673,72 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>明略科技</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>云密城J</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>5天</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>氛围不行，不适合长期发展</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2022-02-12 07:05:14</t>
+          <t>2022-03-09 02:18:53</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>工资*0.8*8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>半年 不打折</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1748,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>中易智能</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1766,12 +1758,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1781,55 +1773,55 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>不加班, 但工作量大</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>无, 所有节假日都少放几天</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:56</t>
+          <t>2022-02-13 10:32:56</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>具体基数忘了, 公司交一千多</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>三个月, 八折</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1831,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>创E梦工厂3号楼</t>
+          <t>江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1854,7 +1846,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1864,55 +1856,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>钉钉打开，每个月有三次补打卡</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2022-02-12 07:02:08</t>
+          <t>2022-02-12 07:05:14</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>基数8%。</t>
+          <t>工资*0.8*8%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
     </row>
@@ -1922,22 +1914,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>江苏图星软件科技有限责任公司</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>云密城</t>
+          <t>江苏省南京市江宁区</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>研发部/产品部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Java/前端/测试/产品</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1947,57 +1939,57 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>第一年工资的一半，次年全额，比例 10%</t>
-        </is>
-      </c>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1-3个月，看领导给你的评价，</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>8折，两个月的试用</t>
-        </is>
-      </c>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>win台式机，网吧位</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>在职时长/365*5</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>严格钉钉打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2022-02-10 14:14:05</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+          <t>2022-02-12 07:02:56</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>基数底薪，比例 10%。</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>三个月八折</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2005,77 +1997,77 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>江北研创园</t>
+          <t>创E梦工厂3号楼</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>钉钉打开，每个月有三次补打卡</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2022-02-10 07:19:05</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
+          <t>2022-02-12 07:02:08</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>基数8%。</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>试用期3个月；打8折</t>
@@ -2088,18 +2080,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南京三百云信息科技有限公司（车300）</t>
+          <t>江苏图星软件科技有限责任公司</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>云密城</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>研发部/产品部</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Java/前端/测试/产品</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2109,57 +2105,53 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>不强制加班，加班换调休，无加班费，年底清零</t>
+          <t>周二晚加班7点到9点 ，周四晚加班7点到10点</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>基数 工资80%，比例 7%</t>
+          <t>第一年工资的一半，次年全额，比例 10%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>承诺13薪-14；！！第一年无</t>
+          <t>1-3个月，看领导给你的评价，</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>8折，两个月的试用</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>提供电脑</t>
+          <t>win台式机，网吧位</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>每两个月发一天</t>
+          <t>在职时长/365*5</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+          <t>严格钉钉打卡</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>抠</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>lfc ?</t>
-        </is>
-      </c>
+          <t>除工资外无补贴，135每天打卡的工作时间必须满足7小时，一周40个小时工作时长。到点就可以走</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2022-02-11 10:04:17</t>
+          <t>2022-02-10 14:14:05</t>
         </is>
       </c>
       <c r="R21" t="inlineStr"/>
@@ -2171,76 +2163,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>南京叶子科技有限公司</t>
+          <t>安元科技</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>江苏省南京市雨花台区</t>
+          <t>江北研创园</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>营销IT事业部</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>正常下班双休，视项目进度自行申请加班</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>看情况，基本到点就走，除非有上线</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>按KPI决定0~2个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>入职即可</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>OPPO自研IM软件TT打卡</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2022-02-07 06:37:12</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>比例 10%左右</t>
-        </is>
-      </c>
+          <t>2022-02-10 07:19:05</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>试用期 3个月，8折，转正返还</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
     </row>
@@ -2250,50 +2246,78 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>南京三百云信息科技有限公司（车300）</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>江宁九龙湖</t>
+          <t>鼓楼区</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09:00-17:00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>9:00-18:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>不强制加班，加班换调休，无加班费，年底清零</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>公司缴纳双边12%</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+          <t>基数 工资80%，比例 7%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>承诺13薪-14；！！第一年无</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+          <t>提供电脑</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+          <t>每两个月发一天</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>两次补卡，严格准点打卡。迟到可用调休补(起步0.5h)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>抠</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>lfc ?</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2022-02-07 06:38:11</t>
+          <t>2022-02-11 10:04:17</t>
         </is>
       </c>
       <c r="R23" t="inlineStr"/>
@@ -2305,75 +2329,209 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>南京叶子科技有限公司</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>江苏省南京市雨花台区</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>营销IT事业部</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>正常下班双休，视项目进度自行申请加班</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>按KPI决定0~2个月</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>工位大小1.5 * 1 长桌，台式机i5-8400 + 8g + 可申请硬盘</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>入职即可</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>OPPO自研IM软件TT打卡</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:37:12</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>比例 10%左右</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>试用期 3个月，8折，转正返还</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>江宁九龙湖</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>09:00-17:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>公司缴纳双边12%</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>升降桌+工作站（ 32G+1T ）+MacBook +双显示器+超大工位</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2022-02-07 06:38:11</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>云账房</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>地址：南站绿地之窗</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>中台</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>9:30-18:30</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>1.5h</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>去年只发了半个月</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>三个月，薪资打八折</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>五天年假，按入职日期折算</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>根据项目仅仅程度不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>{
 "公司名称": "云账房",
@@ -2393,155 +2551,9 @@
 }</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>2022-02-11 01:20:28</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>江苏长江汇科技有限公司</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鼓楼区</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>技术部</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>按需加班</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>基数 看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>基数5000 按照绩效或多或少</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>8折</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:30:06</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>9:00-18:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1h</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>124 加班，35 正常；大小周</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>基数南京底薪，比例 8%</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>一般无</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>3个月8折</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>入职一年后才有，每年加一天</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>企业微信打卡，每月三次迟到机会</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
@@ -2553,12 +2565,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>南京耀多信息技术有限公司</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>江苏南京</t>
+          <t>鼓楼区</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2568,63 +2580,55 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>最低额度</t>
+          <t>基数 看个人，比例 5%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>基数5000 按照绩效或多或少</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>八折</t>
+          <t>8折</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>提供笔记本</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>钉钉位置打卡</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>老板阴晴不定，随意开除员工</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2022-01-25 02:22:42</t>
+          <t>2022-02-06 13:30:06</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
@@ -2636,74 +2640,66 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>南京希音电子商务有限公司</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天溯产业园</t>
+          <t>秦淮区</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>前端</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10:00-18:00(到20:00有50补贴)</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>看部门，不强制，有工时排名。</t>
+          <t>124 加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>基础工资的8%</t>
+          <t>基数南京底薪，比例 8%</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>一般无</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>3个月8折</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>法定年假，可用加班时长来调休</t>
+          <t>入职一年后才有，每年加一天</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1月3次补卡</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
-        </is>
-      </c>
+          <t>企业微信打卡，每月三次迟到机会</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2022-01-25 01:58:09</t>
+          <t>2022-02-06 13:26:16</t>
         </is>
       </c>
       <c r="R28" t="inlineStr"/>
@@ -2715,78 +2711,78 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>慧资环球</t>
+          <t>南京耀多信息技术有限公司</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>白下（年中搬到河西）</t>
+          <t>江苏南京</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>技术部</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一开始996，后来发不起加班费不给加班了，欠的加班费也不发</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>最低额度</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>八折</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
+          <t>提供笔记本</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10 ~ 20天</t>
+          <t>有</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉位置打卡</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>内推VX：Just1n</t>
+          <t>老板阴晴不定，随意开除员工</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2022-01-24 14:35:55</t>
+          <t>2022-01-25 02:22:42</t>
         </is>
       </c>
       <c r="R29" t="inlineStr"/>
@@ -2798,74 +2794,74 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>南京希音电子商务有限公司</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>建邺</t>
+          <t>天溯产业园</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9：30-6：30</t>
+          <t>10:00-18:00(到20:00有50补贴)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>看部门，不强制，有工时排名。</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基础工资的8%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
+          <t>配mac m1+显示器，网吧工作环境，工位挤。</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>法定年假，可用加班时长来调休</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
+          <t>1月3次补卡</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
+          <t>抠，舍得给校招生，不舍得给社招生。多余的调休时长换钱200/d</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2022-01-24 14:32:45</t>
+          <t>2022-01-25 01:58:09</t>
         </is>
       </c>
       <c r="R30" t="inlineStr"/>
@@ -2877,74 +2873,78 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>南京力方科技有限公司(力方智充)</t>
+          <t>慧资环球</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>雨花台区软件谷科创城</t>
+          <t>白下（年中搬到河西）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>自己安排，满8小时工时就好</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>124固定加班到9点</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>最低，双边合计512</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>三个月，打八折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>网吧工位，自带电脑</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸4K显示器 Processor Intel(R) Core(TM) i9-10980XE CPU @ 3.00GHz 3.00 GHz  128GB RAM (新的台式机配置标准)</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10 ~ 20天</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>内推VX：Just1n</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2022-01-24 14:29:37</t>
+          <t>2022-01-24 14:35:55</t>
         </is>
       </c>
       <c r="R31" t="inlineStr"/>
@@ -2956,27 +2956,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>零字节</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>软件大道</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9：30-6：30</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2986,44 +2982,48 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>基数5500，比例10%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>13薪，每年调薪一次</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>应届生八折，有工作经验的不打折</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+          <t>入职转正就享受年假</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2022-01-24 14:25:34</t>
+          <t>2022-01-24 14:32:45</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -3035,15 +3035,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>南京力方科技有限公司(力方智充)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>雨花台软件谷科创城</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>雨花台区软件谷科创城</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>Java</t>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3061,36 +3065,44 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>周1,2,4正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>124固定加班到9点</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>最低，双边合计512</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6个月不打折。</t>
+          <t>三个月，打八折</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>mac笔记本+小米曲面屏显示器</t>
+          <t>网吧工位，自带电脑</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
+          <t>严格打卡，迟打卡扣30，不打卡半天工资</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2022-01-24 14:21:22</t>
+          <t>2022-01-24 14:29:37</t>
         </is>
       </c>
       <c r="R33" t="inlineStr"/>
@@ -3102,17 +3114,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>雨花云密城</t>
+          <t>软件大道</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>web后台</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3122,7 +3134,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3132,17 +3144,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>工资八折的10%</t>
+          <t>基数5500，比例10%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1个月工资</t>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3152,24 +3164,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Windows电脑+dell显示器</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2022-01-24 14:19:34</t>
+          <t>2022-01-24 14:25:34</t>
         </is>
       </c>
       <c r="R34" t="inlineStr"/>
@@ -3181,12 +3193,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>雨花台</t>
+          <t>雨花台软件谷科创城</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -3197,54 +3209,46 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>基数5k，比例8%</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>固定13薪</t>
-        </is>
-      </c>
+          <t>周1,2,4正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+          <t>6个月不打折。</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1天</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有4次迟到补卡机会，早上9.15之前打卡不算迟到</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:01</t>
+          <t>2022-01-24 14:21:22</t>
         </is>
       </c>
       <c r="R35" t="inlineStr"/>
@@ -3256,15 +3260,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华为南研所</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>雨花云密城</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>web后台</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>Java</t>
@@ -3272,54 +3280,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
+          <t>995</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>基础工资的5%</t>
+          <t>工资八折的10%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>1个月工资</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>试用期6个月，100%工资不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>配win台式机+双屏</t>
+          <t>Windows电脑+dell显示器</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2022-01-24 14:17:32</t>
+          <t>2022-01-24 14:19:34</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
@@ -3331,12 +3339,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>新视云</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>雨花区万博科技园</t>
+          <t>雨花台</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -3347,42 +3355,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基数5k，比例8%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>固定13薪</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>3年合同，试用期总共6个月，前三个月8折，后三个月全薪</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>联想</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+          <t>配笔记本+显示器</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>不打卡</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:47</t>
+          <t>2022-01-24 14:17:01</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -3394,19 +3414,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A示例xxx公司</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>xx区</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>xxx事业部</t>
-        </is>
-      </c>
+          <t>华为南研所</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>Java</t>
@@ -3414,58 +3430,200 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>135 加班，24 正常；大小周等等</t>
+          <t>看部门情况。好部门：124加班8：30，35正常下班,差部门：天天11点以后</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>基数 xxxx，比例 xx%</t>
+          <t>基础工资的5%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>是否打折，比如 xx%。</t>
+          <t>试用期6个月，100%工资不打折</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+          <t>配win台式机+双屏</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>是否有入职就有，是否有前置条件才有。</t>
+          <t>没签奋斗协议的5天，但一般不给休，第二年可以换成钱。签了的自愿放弃年假了</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+          <t>必须按时打卡</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2022-01-24 13:11:01</t>
+          <t>2022-01-24 14:17:32</t>
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>满帮</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>雨花区万博科技园</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>看部门，不强制， 周五基本不加，还有每月一天奋斗日（年底算工资）， 据说要取消了</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2022-01-24 14:10:47</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>A示例xxx公司</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>xx区</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>xxx事业部</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>135 加班，24 正常；大小周等等</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>基数 xxxx，比例 xx%</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>13薪还是根据公司业绩提供，是否折扣，折扣比例。</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>是否打折，比如 xx%。</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>工位大小，环境，是否提供设备，设备型号种类。</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>是否有入职就有，是否有前置条件才有。</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>是否严格打卡，使用的软件或者方式（比如钉钉或人脸识别）。</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2022-01-24 13:11:01</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/南京互联网公司统计汇总.xlsx
+++ b/南京互联网公司统计汇总.xlsx
@@ -1650,10 +1650,29 @@
           <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>{
+    "公司名称": "浩鲸科技",
+    "地址": "雨花台区怡化中心",
+    "部门": "国内业务运营中心",
+    "岗位": "全栈",
+    "上班时间": "9:00上班，124到晚上8点半，35到晚上6",
+    "午休时长": "1h",
+    "加班情况": "今年过完年后就开始说所谓的项目冲刺，一直冲到现在八月份还是在冲刺。有的团队除了上门的上班时间外还要求周六来。",
+    "公积金": "8%",
+    "年终奖": "每年都不一样不一定的，反正很少",
+    "试用期": "3个月",
+    "工位电脑情况": "自带",
+    "年假": "5天，转正后才开始释放，按照转正后工作时间分开释放",
+    "打卡情况": "严格打卡，钉钉。",
+    "其他备注": "无效加班。工作效率低下，沟通成本太大，扯皮太多，一件事推动起来比较费劲。"
+}</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2022-03-09 02:21:16</t>
+          <t>2022-08-21 03:29:20</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
